--- a/Data_Set_Grape_SYR_SPI-SPEI_.xlsx
+++ b/Data_Set_Grape_SYR_SPI-SPEI_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PC_Enzo\Articoli_da_Pubblicare\Articoli_da_Pubblicare_2024\Geographies_ex_IJAM\Draft_Geographies\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5513A952-7203-48EE-8147-6A26D7C0E731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5158612-DC08-415B-B376-E8FD701B62DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="745" xr2:uid="{C239A673-299D-47A0-967A-5419137A5CA5}"/>
   </bookViews>
@@ -829,9 +829,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BJ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -986,79 +984,79 @@
         <v>1952</v>
       </c>
       <c r="J3">
-        <v>24.206842923794714</v>
+        <v>2.4206842923794714</v>
       </c>
       <c r="K3">
         <f>N$6*I3+O$6</f>
-        <v>21.654591077841815</v>
+        <v>2.1654591077842156</v>
       </c>
       <c r="L3" s="3">
         <f>J3-K3</f>
-        <v>2.5522518459528989</v>
+        <v>0.25522518459525578</v>
       </c>
       <c r="M3">
         <f>(L3-N$3)/O$3</f>
-        <v>0.31498652946578631</v>
+        <v>0.31498652946577105</v>
       </c>
       <c r="N3" s="10">
         <f>AVERAGE(L3:L33)</f>
-        <v>-6.9564425904254974E-14</v>
+        <v>-2.8937425932165368E-14</v>
       </c>
       <c r="O3">
         <f>STDEV(L3:L33)</f>
-        <v>8.1027333146009752</v>
+        <v>0.81027333146009828</v>
       </c>
       <c r="Q3" s="1">
         <v>1952</v>
       </c>
       <c r="R3">
-        <v>24.75154304843603</v>
+        <v>2.4751543048436031</v>
       </c>
       <c r="S3">
         <f>V$6*Q3+W$6</f>
-        <v>28.889962551850658</v>
+        <v>2.8889962551850203</v>
       </c>
       <c r="T3" s="3">
         <f>R3-S3</f>
-        <v>-4.1384195034146281</v>
+        <v>-0.41384195034141724</v>
       </c>
       <c r="U3">
         <f>(T3-V$3)/W$3</f>
-        <v>-0.48547911395952625</v>
+        <v>-0.48547911395952309</v>
       </c>
       <c r="V3" s="10">
         <f>AVERAGE(T3:T33)</f>
-        <v>2.4295977416313104E-14</v>
+        <v>4.2030894893551086E-14</v>
       </c>
       <c r="W3">
         <f>STDEV(T3:T33)</f>
-        <v>8.5244027691779678</v>
+        <v>0.85244027691779012</v>
       </c>
       <c r="Y3" s="1">
         <v>1952</v>
       </c>
       <c r="Z3">
-        <v>26.357039187227866</v>
+        <v>2.6357039187227866</v>
       </c>
       <c r="AA3">
         <f>AD$6*Y3+AE$6</f>
-        <v>18.266502835687106</v>
+        <v>1.8266502835687248</v>
       </c>
       <c r="AB3" s="3">
         <f>Z3-AA3</f>
-        <v>8.0905363515407593</v>
+        <v>0.80905363515406181</v>
       </c>
       <c r="AC3">
         <f>(AB3-AD$3)/AE$3</f>
-        <v>1.7849071538238752</v>
+        <v>1.7849071538238677</v>
       </c>
       <c r="AD3" s="10">
         <f>AVERAGE(AB3:AB33)</f>
-        <v>5.5124363854936803E-14</v>
+        <v>-7.6784456928914047E-15</v>
       </c>
       <c r="AE3">
         <f>STDEV(AB3:AB33)</f>
-        <v>4.5327491316330022</v>
+        <v>0.45327491316330165</v>
       </c>
       <c r="AI3" t="s">
         <v>13</v>
@@ -1101,79 +1099,79 @@
         <v>1953</v>
       </c>
       <c r="J4">
-        <v>24.33125972006221</v>
+        <v>2.4331259720062208</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K33" si="3">N$6*I4+O$6</f>
-        <v>23.369739125258093</v>
+        <v>2.3369739125258207</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4:L60" si="4">J4-K4</f>
-        <v>0.96152059480411722</v>
+        <v>9.6152059480400176E-2</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M33" si="5">(L4-N$3)/O$3</f>
-        <v>0.11866620280733473</v>
+        <v>0.11866620280734748</v>
       </c>
       <c r="N4" s="10">
         <f>AVERAGE(L34:L60)</f>
-        <v>-2.105311809659556E-14</v>
+        <v>-1.2138438402568378E-14</v>
       </c>
       <c r="O4">
         <f>STDEV(L34:L60)</f>
-        <v>18.399936086337718</v>
+        <v>1.8399936086337723</v>
       </c>
       <c r="Q4" s="1">
         <v>1953</v>
       </c>
       <c r="R4">
-        <v>25.427416847995026</v>
+        <v>2.5427416847995028</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S33" si="6">V$6*Q4+W$6</f>
-        <v>30.83426544292297</v>
+        <v>3.0834265442922515</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" ref="T4:T60" si="7">R4-S4</f>
-        <v>-5.4068485949279435</v>
+        <v>-0.54068485949274869</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4:U33" si="8">(T4-V$3)/W$3</f>
-        <v>-0.63427887458318266</v>
+        <v>-0.63427887458318066</v>
       </c>
       <c r="V4" s="10">
         <f>AVERAGE(T34:T60)</f>
-        <v>-2.6316397620744451E-14</v>
+        <v>-7.5659643159640298E-16</v>
       </c>
       <c r="W4">
         <f>STDEV(T34:T60)</f>
-        <v>21.054898028108738</v>
+        <v>2.1054898028108728</v>
       </c>
       <c r="Y4" s="1">
         <v>1953</v>
       </c>
       <c r="Z4">
-        <v>25.590056103695105</v>
+        <v>2.5590056103695105</v>
       </c>
       <c r="AA4">
         <f t="shared" ref="AA4:AA33" si="9">AD$6*Y4+AE$6</f>
-        <v>18.80329672852281</v>
+        <v>1.880329672852298</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" ref="AB4:AB60" si="10">Z4-AA4</f>
-        <v>6.786759375172295</v>
+        <v>0.67867593751721245</v>
       </c>
       <c r="AC4">
         <f t="shared" ref="AC4:AC33" si="11">(AB4-AD$3)/AE$3</f>
-        <v>1.4972722244452101</v>
+        <v>1.4972722244451968</v>
       </c>
       <c r="AD4" s="10">
         <f>AVERAGE(AB34:AB60)</f>
-        <v>-1.0526559048297781E-13</v>
+        <v>-3.9474596431116679E-15</v>
       </c>
       <c r="AE4">
         <f>STDEV(AB34:AB60)</f>
-        <v>14.196581282457114</v>
+        <v>1.4196581282457126</v>
       </c>
       <c r="AI4" t="s">
         <v>12</v>
@@ -1208,19 +1206,19 @@
         <v>1954</v>
       </c>
       <c r="J5">
-        <v>21.096423017107309</v>
+        <v>2.1096423017107311</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>25.084887172674826</v>
+        <v>2.5084887172674826</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="4"/>
-        <v>-3.9884641555675167</v>
+        <v>-0.39884641555675149</v>
       </c>
       <c r="M5">
         <f t="shared" si="5"/>
-        <v>-0.49223687868145782</v>
+        <v>-0.49223687868143007</v>
       </c>
       <c r="N5" t="s">
         <v>14</v>
@@ -1229,19 +1227,19 @@
         <v>1954</v>
       </c>
       <c r="R5">
-        <v>29.435525634386327</v>
+        <v>2.9435525634386326</v>
       </c>
       <c r="S5">
         <f t="shared" si="6"/>
-        <v>32.778568333994826</v>
+        <v>3.2778568333994258</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" si="7"/>
-        <v>-3.3430426996084996</v>
+        <v>-0.33430426996079321</v>
       </c>
       <c r="U5">
         <f t="shared" si="8"/>
-        <v>-0.39217324546138299</v>
+        <v>-0.39217324546136589</v>
       </c>
       <c r="V5" t="s">
         <v>14</v>
@@ -1250,19 +1248,19 @@
         <v>1954</v>
       </c>
       <c r="Z5">
-        <v>20.873833592534993</v>
+        <v>2.0873833592534994</v>
       </c>
       <c r="AA5">
         <f t="shared" si="9"/>
-        <v>19.340090621358513</v>
+        <v>1.9340090621358712</v>
       </c>
       <c r="AB5" s="3">
         <f t="shared" si="10"/>
-        <v>1.5337429711764798</v>
+        <v>0.15337429711762818</v>
       </c>
       <c r="AC5">
         <f t="shared" si="11"/>
-        <v>0.33836926038390019</v>
+        <v>0.33836926038388454</v>
       </c>
       <c r="AD5" t="s">
         <v>14</v>
@@ -1305,76 +1303,76 @@
         <v>1955</v>
       </c>
       <c r="J6">
-        <v>30.92227280391165</v>
+        <v>3.0922272803911648</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>26.800035220091104</v>
+        <v>2.6800035220091445</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="4"/>
-        <v>4.1222375838205458</v>
+        <v>0.4122237583820203</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
-        <v>0.50874654561225896</v>
+        <v>0.50874654561224331</v>
       </c>
       <c r="N6">
         <f t="array" ref="N6:O6">LINEST(J3:J33,I3:I33,TRUE,FALSE)</f>
-        <v>1.7151480474164011</v>
+        <v>0.1715148047416401</v>
       </c>
       <c r="O6">
-        <v>-3326.3143974789732</v>
+        <v>-332.63143974789728</v>
       </c>
       <c r="Q6" s="1">
         <v>1955</v>
       </c>
       <c r="R6">
-        <v>39.509888220120381</v>
+        <v>3.9509888220120382</v>
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>34.722871225066683</v>
+        <v>3.4722871225066569</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="7"/>
-        <v>4.7870169950536976</v>
+        <v>0.47870169950538122</v>
       </c>
       <c r="U6">
         <f t="shared" si="8"/>
-        <v>0.56156626155233857</v>
+        <v>0.56156626155230993</v>
       </c>
       <c r="V6">
         <f t="array" ref="V6:W6">LINEST(R3:R33,Q3:Q33,TRUE,FALSE)</f>
-        <v>1.944302891071978</v>
+        <v>0.19443028910719773</v>
       </c>
       <c r="W6">
-        <v>-3766.3892808206501</v>
+        <v>-376.63892808206492</v>
       </c>
       <c r="Y6" s="1">
         <v>1955</v>
       </c>
       <c r="Z6">
-        <v>13.399105754276828</v>
+        <v>1.3399105754276828</v>
       </c>
       <c r="AA6">
         <f t="shared" si="9"/>
-        <v>19.876884514194217</v>
+        <v>1.9876884514194444</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="10"/>
-        <v>-6.4777787599173884</v>
+        <v>-0.64777787599176162</v>
       </c>
       <c r="AC6">
         <f t="shared" si="11"/>
-        <v>-1.4291059513332718</v>
+        <v>-1.4291059513332884</v>
       </c>
       <c r="AD6">
         <f t="array" ref="AD6:AE6">LINEST(Z3:Z33,Y3:Y33,TRUE,FALSE)</f>
-        <v>0.53679389283574885</v>
+        <v>5.3679389283574866E-2</v>
       </c>
       <c r="AE6">
-        <v>-1029.5551759796947</v>
+        <v>-102.95551759796942</v>
       </c>
       <c r="AI6" t="s">
         <v>3</v>
@@ -1406,55 +1404,55 @@
         <v>1956</v>
       </c>
       <c r="J7">
-        <v>33.886875158054458</v>
+        <v>3.3886875158054459</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>28.515183267507382</v>
+        <v>2.8515183267507496</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="4"/>
-        <v>5.3716918905470763</v>
+        <v>0.53716918905469635</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>0.66294812898105093</v>
+        <v>0.66294812898106359</v>
       </c>
       <c r="Q7" s="1">
         <v>1956</v>
       </c>
       <c r="R7">
-        <v>61.227098423519386</v>
+        <v>6.1227098423519388</v>
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>36.66717411613854</v>
+        <v>3.6667174116138312</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="7"/>
-        <v>24.559924307380847</v>
+        <v>2.4559924307381076</v>
       </c>
       <c r="U7">
         <f t="shared" si="8"/>
-        <v>2.8811313792190987</v>
+        <v>2.8811313792191013</v>
       </c>
       <c r="Y7" s="1">
         <v>1956</v>
       </c>
       <c r="Z7">
-        <v>31.896384136858476</v>
+        <v>3.1896384136858478</v>
       </c>
       <c r="AA7">
         <f t="shared" si="9"/>
-        <v>20.413678407030147</v>
+        <v>2.0413678407030176</v>
       </c>
       <c r="AB7" s="3">
         <f t="shared" si="10"/>
-        <v>11.482705729828329</v>
+        <v>1.1482705729828302</v>
       </c>
       <c r="AC7">
         <f t="shared" si="11"/>
-        <v>2.5332762516445353</v>
+        <v>2.5332762516445504</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -1485,19 +1483,19 @@
         <v>1957</v>
       </c>
       <c r="J8">
-        <v>16.725352112676056</v>
+        <v>1.6725352112676055</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>30.23033131492366</v>
+        <v>3.0230331314924115</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="4"/>
-        <v>-13.504979202247604</v>
+        <v>-1.350497920224806</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
-        <v>-1.6667189549373189</v>
+        <v>-1.6667189549373465</v>
       </c>
       <c r="N8" t="s">
         <v>15</v>
@@ -1506,19 +1504,19 @@
         <v>1957</v>
       </c>
       <c r="R8">
-        <v>26.1118690313779</v>
+        <v>2.6111869031377899</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>38.611477007210851</v>
+        <v>3.8611477007210055</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="7"/>
-        <v>-12.499607975832951</v>
+        <v>-1.2499607975832157</v>
       </c>
       <c r="U8">
         <f t="shared" si="8"/>
-        <v>-1.4663324005557692</v>
+        <v>-1.4663324005557337</v>
       </c>
       <c r="V8" t="s">
         <v>15</v>
@@ -1527,19 +1525,19 @@
         <v>1957</v>
       </c>
       <c r="Z8">
-        <v>15.219272937103289</v>
+        <v>1.521927293710329</v>
       </c>
       <c r="AA8">
         <f t="shared" si="9"/>
-        <v>20.950472299865851</v>
+        <v>2.0950472299865908</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="10"/>
-        <v>-5.7311993627625615</v>
+        <v>-0.57311993627626179</v>
       </c>
       <c r="AC8">
         <f t="shared" si="11"/>
-        <v>-1.2643980940321424</v>
+        <v>-1.2643980940321218</v>
       </c>
       <c r="AD8" t="s">
         <v>15</v>
@@ -1577,76 +1575,76 @@
         <v>1958</v>
       </c>
       <c r="J9">
-        <v>55.382935841451122</v>
+        <v>5.5382935841451122</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>31.945479362340393</v>
+        <v>3.1945479362340734</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="4"/>
-        <v>23.437456479110729</v>
+        <v>2.3437456479110388</v>
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
-        <v>2.892537069790627</v>
+        <v>2.8925370697906092</v>
       </c>
       <c r="N9">
         <f t="array" ref="N9:O9">LINEST(J34:J60,I34:I60,TRUE,FALSE)</f>
-        <v>-1.4346068254598117</v>
+        <v>-0.14346068254598116</v>
       </c>
       <c r="O9">
-        <v>2930.5952015361863</v>
+        <v>293.05952015361862</v>
       </c>
       <c r="Q9" s="1">
         <v>1958</v>
       </c>
       <c r="R9">
-        <v>43.72288503253796</v>
+        <v>4.3722885032537961</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>40.555779898282708</v>
+        <v>4.0555779898282367</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="7"/>
-        <v>3.1671051342552516</v>
+        <v>0.31671051342555945</v>
       </c>
       <c r="U9">
         <f t="shared" si="8"/>
-        <v>0.37153396196935451</v>
+        <v>0.37153396196935118</v>
       </c>
       <c r="V9">
         <f t="array" ref="V9:W9">LINEST(R34:R60,Q34:Q60,TRUE,FALSE)</f>
-        <v>0.27254166384190137</v>
+        <v>2.7254166384190127E-2</v>
       </c>
       <c r="W9">
-        <v>-418.87967484085169</v>
+        <v>-41.887967484085152</v>
       </c>
       <c r="Y9" s="1">
         <v>1958</v>
       </c>
       <c r="Z9">
-        <v>22.441815733794961</v>
+        <v>2.2441815733794961</v>
       </c>
       <c r="AA9">
         <f t="shared" si="9"/>
-        <v>21.487266192701554</v>
+        <v>2.148726619270164</v>
       </c>
       <c r="AB9" s="3">
         <f t="shared" si="10"/>
-        <v>0.95454954109340662</v>
+        <v>9.5454954109332135E-2</v>
       </c>
       <c r="AC9">
         <f t="shared" si="11"/>
-        <v>0.21058953702771066</v>
+        <v>0.21058953702772029</v>
       </c>
       <c r="AD9">
         <f t="array" ref="AD9:AE9">LINEST(Z34:Z60,Y34:Y60,TRUE,FALSE)</f>
-        <v>0.55962541123781329</v>
+        <v>5.5962541123781351E-2</v>
       </c>
       <c r="AE9">
-        <v>-1009.7884481447747</v>
+        <v>-100.97884481447753</v>
       </c>
     </row>
     <row r="10" spans="1:62">
@@ -1672,55 +1670,55 @@
         <v>1959</v>
       </c>
       <c r="J10">
-        <v>34.733400402414489</v>
+        <v>3.4733400402414487</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>33.660627409756671</v>
+        <v>3.3660627409756785</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="4"/>
-        <v>1.0727729926578178</v>
+        <v>0.10727729926577023</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>0.13239643352506372</v>
+        <v>0.13239643352507649</v>
       </c>
       <c r="Q10" s="1">
         <v>1959</v>
       </c>
       <c r="R10">
-        <v>52.422907488986787</v>
+        <v>5.2422907488986787</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>42.500082789354565</v>
+        <v>4.250008278935411</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="7"/>
-        <v>9.9228246996322227</v>
+        <v>0.99228246996326774</v>
       </c>
       <c r="U10">
         <f t="shared" si="8"/>
-        <v>1.1640492558036513</v>
+        <v>1.1640492558036672</v>
       </c>
       <c r="Y10" s="1">
         <v>1959</v>
       </c>
       <c r="Z10">
-        <v>25.39911521446432</v>
+        <v>2.5399115214464318</v>
       </c>
       <c r="AA10">
         <f t="shared" si="9"/>
-        <v>22.024060085537258</v>
+        <v>2.2024060085537371</v>
       </c>
       <c r="AB10" s="3">
         <f t="shared" si="10"/>
-        <v>3.3750551289270625</v>
+        <v>0.3375055128926947</v>
       </c>
       <c r="AC10">
         <f t="shared" si="11"/>
-        <v>0.74459340919030403</v>
+        <v>0.74459340919030526</v>
       </c>
     </row>
     <row r="11" spans="1:62">
@@ -1746,55 +1744,55 @@
         <v>1960</v>
       </c>
       <c r="J11">
-        <v>29.746729285474672</v>
+        <v>2.9746729285474673</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>35.375775457172949</v>
+        <v>3.5375775457173404</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="4"/>
-        <v>-5.6290461716982776</v>
+        <v>-0.56290461716987306</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>-0.69470954468596069</v>
+        <v>-0.69470954468598867</v>
       </c>
       <c r="Q11" s="1">
         <v>1960</v>
       </c>
       <c r="R11">
-        <v>41.3239586097108</v>
+        <v>4.13239586097108</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>44.444385680426876</v>
+        <v>4.4444385680426421</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="7"/>
-        <v>-3.1204270707160759</v>
+        <v>-0.31204270707156212</v>
       </c>
       <c r="U11">
         <f t="shared" si="8"/>
-        <v>-0.3660581456801591</v>
+        <v>-0.36605814568015504</v>
       </c>
       <c r="Y11" s="1">
         <v>1960</v>
       </c>
       <c r="Z11">
-        <v>20.388536256972493</v>
+        <v>2.0388536256972492</v>
       </c>
       <c r="AA11">
         <f t="shared" si="9"/>
-        <v>22.560853978372961</v>
+        <v>2.2560853978373245</v>
       </c>
       <c r="AB11" s="3">
         <f t="shared" si="10"/>
-        <v>-2.1723177214004679</v>
+        <v>-0.21723177214007539</v>
       </c>
       <c r="AC11">
         <f t="shared" si="11"/>
-        <v>-0.47924949259609861</v>
+        <v>-0.47924949259613109</v>
       </c>
     </row>
     <row r="12" spans="1:62">
@@ -1820,55 +1818,55 @@
         <v>1961</v>
       </c>
       <c r="J12">
-        <v>32.441948193478076</v>
+        <v>3.2441948193478076</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>37.090923504589227</v>
+        <v>3.7090923504589455</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="4"/>
-        <v>-4.6489753111111511</v>
+        <v>-0.46489753111113785</v>
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
-        <v>-0.5737539581530734</v>
+        <v>-0.57375395815307384</v>
       </c>
       <c r="Q12" s="1">
         <v>1961</v>
       </c>
       <c r="R12">
-        <v>37.52281982867575</v>
+        <v>3.7522819828675749</v>
       </c>
       <c r="S12">
         <f t="shared" si="6"/>
-        <v>46.388688571498733</v>
+        <v>4.6388688571498164</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="7"/>
-        <v>-8.8658687428229825</v>
+        <v>-0.88658687428224159</v>
       </c>
       <c r="U12">
         <f t="shared" si="8"/>
-        <v>-1.0400574659470212</v>
+        <v>-1.0400574659470092</v>
       </c>
       <c r="Y12" s="1">
         <v>1961</v>
       </c>
       <c r="Z12">
-        <v>20.420522261518336</v>
+        <v>2.0420522261518337</v>
       </c>
       <c r="AA12">
         <f t="shared" si="9"/>
-        <v>23.097647871208892</v>
+        <v>2.3097647871208977</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" si="10"/>
-        <v>-2.677125609690556</v>
+        <v>-0.26771256096906404</v>
       </c>
       <c r="AC12">
         <f t="shared" si="11"/>
-        <v>-0.59061852574358775</v>
+        <v>-0.59061852574357543</v>
       </c>
     </row>
     <row r="13" spans="1:62">
@@ -1894,55 +1892,55 @@
         <v>1962</v>
       </c>
       <c r="J13">
-        <v>37.250628667225484</v>
+        <v>3.7250628667225483</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
-        <v>38.80607155200596</v>
+        <v>3.8806071552006074</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="4"/>
-        <v>-1.5554428847804758</v>
+        <v>-0.15554428847805912</v>
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
-        <v>-0.1919652078364133</v>
+        <v>-0.19196520783640023</v>
       </c>
       <c r="Q13" s="1">
         <v>1962</v>
       </c>
       <c r="R13">
-        <v>39.502332814930014</v>
+        <v>3.9502332814930012</v>
       </c>
       <c r="S13">
         <f t="shared" si="6"/>
-        <v>48.33299146257059</v>
+        <v>4.8332991462570476</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="7"/>
-        <v>-8.8306586476405755</v>
+        <v>-0.88306586476404636</v>
       </c>
       <c r="U13">
         <f t="shared" si="8"/>
-        <v>-1.0359269601349639</v>
+        <v>-1.0359269601350054</v>
       </c>
       <c r="Y13" s="1">
         <v>1962</v>
       </c>
       <c r="Z13">
-        <v>21.452449009253428</v>
+        <v>2.1452449009253427</v>
       </c>
       <c r="AA13">
         <f t="shared" si="9"/>
-        <v>23.634441764044595</v>
+        <v>2.3634441764044709</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" si="10"/>
-        <v>-2.1819927547911675</v>
+        <v>-0.21819927547912821</v>
       </c>
       <c r="AC13">
         <f t="shared" si="11"/>
-        <v>-0.48138396620355678</v>
+        <v>-0.48138396620355145</v>
       </c>
     </row>
     <row r="14" spans="1:62">
@@ -1968,55 +1966,55 @@
         <v>1963</v>
       </c>
       <c r="J14">
-        <v>40.93880972338642</v>
+        <v>4.093880972338642</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
-        <v>40.521219599422238</v>
+        <v>4.0521219599422693</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="4"/>
-        <v>0.41759012396418171</v>
+        <v>4.1759012396372697E-2</v>
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>5.1536945343093249E-2</v>
+        <v>5.1536945343064203E-2</v>
       </c>
       <c r="Q14" s="1">
         <v>1963</v>
       </c>
       <c r="R14">
-        <v>57.20850086157381</v>
+        <v>5.7208500861573812</v>
       </c>
       <c r="S14">
         <f t="shared" si="6"/>
-        <v>50.277294353642446</v>
+        <v>5.0277294353642219</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="7"/>
-        <v>6.9312065079313641</v>
+        <v>0.69312065079315932</v>
       </c>
       <c r="U14">
         <f t="shared" si="8"/>
-        <v>0.8131017146436097</v>
+        <v>0.81310171464359637</v>
       </c>
       <c r="Y14" s="1">
         <v>1963</v>
       </c>
       <c r="Z14">
-        <v>22.842885519112446</v>
+        <v>2.2842885519112448</v>
       </c>
       <c r="AA14">
         <f t="shared" si="9"/>
-        <v>24.171235656880299</v>
+        <v>2.4171235656880441</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" si="10"/>
-        <v>-1.3283501377678526</v>
+        <v>-0.13283501377679929</v>
       </c>
       <c r="AC14">
         <f t="shared" si="11"/>
-        <v>-0.29305617831299352</v>
+        <v>-0.29305617831299446</v>
       </c>
     </row>
     <row r="15" spans="1:62">
@@ -2042,15 +2040,15 @@
         <v>1964</v>
       </c>
       <c r="J15">
-        <v>31.5674769488684</v>
+        <v>3.1567476948868398</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
-        <v>42.236367646838517</v>
+        <v>4.2236367646838744</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="4"/>
-        <v>-10.668890697970117</v>
+        <v>-1.0668890697970346</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
@@ -2060,37 +2058,37 @@
         <v>1964</v>
       </c>
       <c r="R15">
-        <v>56.19747899159664</v>
+        <v>5.6197478991596643</v>
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>52.221597244714758</v>
+        <v>5.2221597244713962</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="7"/>
-        <v>3.9758817468818819</v>
+        <v>0.39758817468826813</v>
       </c>
       <c r="U15">
         <f t="shared" si="8"/>
-        <v>0.46641176567320541</v>
+        <v>0.46641176567325637</v>
       </c>
       <c r="Y15" s="1">
         <v>1964</v>
       </c>
       <c r="Z15">
-        <v>22.547357201685966</v>
+        <v>2.2547357201685965</v>
       </c>
       <c r="AA15">
         <f t="shared" si="9"/>
-        <v>24.708029549716002</v>
+        <v>2.4708029549716173</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" si="10"/>
-        <v>-2.1606723480300367</v>
+        <v>-0.21606723480302081</v>
       </c>
       <c r="AC15">
         <f t="shared" si="11"/>
-        <v>-0.47668032915196251</v>
+        <v>-0.47668032915196973</v>
       </c>
     </row>
     <row r="16" spans="1:62">
@@ -2116,55 +2114,55 @@
         <v>1965</v>
       </c>
       <c r="J16">
-        <v>44.437919463087248</v>
+        <v>4.4437919463087248</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
-        <v>43.951515694255249</v>
+        <v>4.3951515694255363</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="4"/>
-        <v>0.48640376883199821</v>
+        <v>4.8640376883188452E-2</v>
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>6.0029591243682817E-2</v>
+        <v>6.0029591243695855E-2</v>
       </c>
       <c r="Q16" s="1">
         <v>1965</v>
       </c>
       <c r="R16">
-        <v>51.861786052382456</v>
+        <v>5.1861786052382453</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>54.165900135786615</v>
+        <v>5.4165900135786273</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="7"/>
-        <v>-2.3041140834041585</v>
+        <v>-0.2304114083403821</v>
       </c>
       <c r="U16">
         <f t="shared" si="8"/>
-        <v>-0.27029624781870498</v>
+        <v>-0.27029624781871392</v>
       </c>
       <c r="Y16" s="1">
         <v>1965</v>
       </c>
       <c r="Z16">
-        <v>22.350163808055502</v>
+        <v>2.2350163808055501</v>
       </c>
       <c r="AA16">
         <f t="shared" si="9"/>
-        <v>25.244823442551706</v>
+        <v>2.5244823442551905</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" si="10"/>
-        <v>-2.8946596344962039</v>
+        <v>-0.28946596344964037</v>
       </c>
       <c r="AC16">
         <f t="shared" si="11"/>
-        <v>-0.63861015697848855</v>
+        <v>-0.63861015697850154</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2190,55 +2188,55 @@
         <v>1966</v>
       </c>
       <c r="J17">
-        <v>49.20302013422819</v>
+        <v>4.9203020134228188</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>45.666663741671528</v>
+        <v>4.5666663741671414</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="4"/>
-        <v>3.5363563925566623</v>
+        <v>0.35363563925567743</v>
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>0.43643993393985747</v>
+        <v>0.43643993393989799</v>
       </c>
       <c r="Q17" s="1">
         <v>1966</v>
       </c>
       <c r="R17">
-        <v>52.414910858995135</v>
+        <v>5.2414910858995132</v>
       </c>
       <c r="S17">
         <f t="shared" si="6"/>
-        <v>56.110203026858471</v>
+        <v>5.6110203026858017</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="7"/>
-        <v>-3.6952921678633359</v>
+        <v>-0.36952921678628847</v>
       </c>
       <c r="U17">
         <f t="shared" si="8"/>
-        <v>-0.43349572608471526</v>
+        <v>-0.4334957260847121</v>
       </c>
       <c r="Y17" s="1">
         <v>1966</v>
       </c>
       <c r="Z17">
-        <v>23.178839853536328</v>
+        <v>2.3178839853536326</v>
       </c>
       <c r="AA17">
         <f t="shared" si="9"/>
-        <v>25.781617335387637</v>
+        <v>2.5781617335387637</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" si="10"/>
-        <v>-2.6027774818513087</v>
+        <v>-0.26027774818513105</v>
       </c>
       <c r="AC17">
         <f t="shared" si="11"/>
-        <v>-0.57421608967661264</v>
+        <v>-0.57421608967658211</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2264,55 +2262,55 @@
         <v>1967</v>
       </c>
       <c r="J18">
-        <v>33.780273191988606</v>
+        <v>3.3780273191988606</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>47.381811789087806</v>
+        <v>4.7381811789088033</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="4"/>
-        <v>-13.6015385970992</v>
+        <v>-1.3601538597099427</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>-1.678635846571602</v>
+        <v>-1.6786358465716014</v>
       </c>
       <c r="Q18" s="1">
         <v>1967</v>
       </c>
       <c r="R18">
-        <v>54.731043421905376</v>
+        <v>5.4731043421905374</v>
       </c>
       <c r="S18">
         <f t="shared" si="6"/>
-        <v>58.054505917930328</v>
+        <v>5.8054505917930328</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="7"/>
-        <v>-3.3234624960249519</v>
+        <v>-0.33234624960249537</v>
       </c>
       <c r="U18">
         <f t="shared" si="8"/>
-        <v>-0.38987628647038547</v>
+        <v>-0.38987628647043515</v>
       </c>
       <c r="Y18" s="1">
         <v>1967</v>
       </c>
       <c r="Z18">
-        <v>19.604826691024471</v>
+        <v>1.9604826691024471</v>
       </c>
       <c r="AA18">
         <f t="shared" si="9"/>
-        <v>26.31841122822334</v>
+        <v>2.6318411228223368</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" si="10"/>
-        <v>-6.7135845371988694</v>
+        <v>-0.67135845371988978</v>
       </c>
       <c r="AC18">
         <f t="shared" si="11"/>
-        <v>-1.4811286356763889</v>
+        <v>-1.4811286356763613</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2338,55 +2336,55 @@
         <v>1968</v>
       </c>
       <c r="J19">
-        <v>46.073912679125115</v>
+        <v>4.6073912679125115</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
-        <v>49.096959836504084</v>
+        <v>4.9096959836504652</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="4"/>
-        <v>-3.0230471573789686</v>
+        <v>-0.3023047157379537</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>-0.37308980068879027</v>
+        <v>-0.37308980068883302</v>
       </c>
       <c r="Q19" s="1">
         <v>1968</v>
       </c>
       <c r="R19">
-        <v>47.015046109043844</v>
+        <v>4.7015046109043848</v>
       </c>
       <c r="S19">
         <f t="shared" si="6"/>
-        <v>59.998808809002639</v>
+        <v>5.9998808809002071</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="7"/>
-        <v>-12.983762699958795</v>
+        <v>-1.2983762699958223</v>
       </c>
       <c r="U19">
         <f t="shared" si="8"/>
-        <v>-1.5231287225076626</v>
+        <v>-1.5231287225076537</v>
       </c>
       <c r="Y19" s="1">
         <v>1968</v>
       </c>
       <c r="Z19">
-        <v>21.314369789112309</v>
+        <v>2.1314369789112311</v>
       </c>
       <c r="AA19">
         <f t="shared" si="9"/>
-        <v>26.855205121059043</v>
+        <v>2.6855205121059242</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" si="10"/>
-        <v>-5.5408353319467345</v>
+        <v>-0.55408353319469317</v>
       </c>
       <c r="AC19">
         <f t="shared" si="11"/>
-        <v>-1.2224006162791115</v>
+        <v>-1.2224006162791221</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2412,55 +2410,55 @@
         <v>1969</v>
       </c>
       <c r="J20">
-        <v>49.597989949748744</v>
+        <v>4.9597989949748742</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
-        <v>50.812107883920817</v>
+        <v>5.0812107883920703</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="4"/>
-        <v>-1.2141179341720729</v>
+        <v>-0.1214117934171961</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
-        <v>-0.14984053985636989</v>
+        <v>-0.14984053985632878</v>
       </c>
       <c r="Q20" s="1">
         <v>1969</v>
       </c>
       <c r="R20">
-        <v>55.720915346455435</v>
+        <v>5.5720915346455433</v>
       </c>
       <c r="S20">
         <f t="shared" si="6"/>
-        <v>61.943111700074496</v>
+        <v>6.1943111700073814</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" si="7"/>
-        <v>-6.2221963536190614</v>
+        <v>-0.62221963536183811</v>
       </c>
       <c r="U20">
         <f t="shared" si="8"/>
-        <v>-0.72992754121343673</v>
+        <v>-0.72992754121340919</v>
       </c>
       <c r="Y20" s="1">
         <v>1969</v>
       </c>
       <c r="Z20">
-        <v>24.559796437659035</v>
+        <v>2.4559796437659034</v>
       </c>
       <c r="AA20">
         <f t="shared" si="9"/>
-        <v>27.391999013894747</v>
+        <v>2.7391999013894974</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" si="10"/>
-        <v>-2.8322025762357121</v>
+        <v>-0.28322025762359404</v>
       </c>
       <c r="AC20">
         <f t="shared" si="11"/>
-        <v>-0.62483108903391194</v>
+        <v>-0.62483108903393125</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2486,55 +2484,55 @@
         <v>1970</v>
       </c>
       <c r="J21">
-        <v>41.001330671989358</v>
+        <v>4.1001330671989358</v>
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
-        <v>52.527255931337095</v>
+        <v>5.2527255931337322</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="4"/>
-        <v>-11.525925259347737</v>
+        <v>-1.1525925259347964</v>
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
-        <v>-1.4224737273011521</v>
+        <v>-1.4224737273011518</v>
       </c>
       <c r="Q21" s="1">
         <v>1970</v>
       </c>
       <c r="R21">
-        <v>79.124860646599771</v>
+        <v>7.9124860646599773</v>
       </c>
       <c r="S21">
         <f t="shared" si="6"/>
-        <v>63.887414591146353</v>
+        <v>6.3887414591146126</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" si="7"/>
-        <v>15.237446055453418</v>
+        <v>1.5237446055453647</v>
       </c>
       <c r="U21">
         <f t="shared" si="8"/>
-        <v>1.7875089279624434</v>
+        <v>1.7875089279624379</v>
       </c>
       <c r="Y21" s="1">
         <v>1970</v>
       </c>
       <c r="Z21">
-        <v>25.318892900120336</v>
+        <v>2.5318892900120336</v>
       </c>
       <c r="AA21">
         <f t="shared" si="9"/>
-        <v>27.92879290673045</v>
+        <v>2.7928792906730706</v>
       </c>
       <c r="AB21" s="3">
         <f t="shared" si="10"/>
-        <v>-2.6099000066101148</v>
+        <v>-0.26099000066103706</v>
       </c>
       <c r="AC21">
         <f t="shared" si="11"/>
-        <v>-0.57578743734046178</v>
+        <v>-0.57578743734048732</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2560,55 +2558,55 @@
         <v>1971</v>
       </c>
       <c r="J22">
-        <v>62.169356180336052</v>
+        <v>6.2169356180336051</v>
       </c>
       <c r="K22">
         <f t="shared" si="3"/>
-        <v>54.242403978753373</v>
+        <v>5.4242403978753941</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="4"/>
-        <v>7.9269522015826794</v>
+        <v>0.79269522015821092</v>
       </c>
       <c r="M22">
         <f t="shared" si="5"/>
-        <v>0.97830594859866948</v>
+        <v>0.97830594859862541</v>
       </c>
       <c r="Q22" s="1">
         <v>1971</v>
       </c>
       <c r="R22">
-        <v>70.737134909596662</v>
+        <v>7.0737134909596664</v>
       </c>
       <c r="S22">
         <f t="shared" si="6"/>
-        <v>65.83171748221821</v>
+        <v>6.5831717482217869</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" si="7"/>
-        <v>4.9054174273784525</v>
+        <v>0.49054174273787954</v>
       </c>
       <c r="U22">
         <f t="shared" si="8"/>
-        <v>0.57545584836924257</v>
+        <v>0.57545584836924091</v>
       </c>
       <c r="Y22" s="1">
         <v>1971</v>
       </c>
       <c r="Z22">
-        <v>28.382630585273755</v>
+        <v>2.8382630585273754</v>
       </c>
       <c r="AA22">
         <f t="shared" si="9"/>
-        <v>28.465586799566381</v>
+        <v>2.8465586799566438</v>
       </c>
       <c r="AB22" s="3">
         <f t="shared" si="10"/>
-        <v>-8.2956214292625674E-2</v>
+        <v>-8.2956214292684294E-3</v>
       </c>
       <c r="AC22">
         <f t="shared" si="11"/>
-        <v>-1.8301523398625497E-2</v>
+        <v>-1.8301523398609274E-2</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2634,55 +2632,55 @@
         <v>1972</v>
       </c>
       <c r="J23">
-        <v>55.587200536103197</v>
+        <v>5.5587200536103198</v>
       </c>
       <c r="K23">
         <f t="shared" si="3"/>
-        <v>55.957552026169651</v>
+        <v>5.5957552026169992</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="4"/>
-        <v>-0.3703514900664544</v>
+        <v>-3.7035149006679369E-2</v>
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
-        <v>-4.5706982531316727E-2</v>
+        <v>-4.570698253133143E-2</v>
       </c>
       <c r="Q23" s="1">
         <v>1972</v>
       </c>
       <c r="R23">
-        <v>61.382000557258287</v>
+        <v>6.1382000557258287</v>
       </c>
       <c r="S23">
         <f t="shared" si="6"/>
-        <v>67.776020373290521</v>
+        <v>6.777602037329018</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" si="7"/>
-        <v>-6.3940198160322339</v>
+        <v>-0.63940198160318928</v>
       </c>
       <c r="U23">
         <f t="shared" si="8"/>
-        <v>-0.75008419817413807</v>
+        <v>-0.7500841981741504</v>
       </c>
       <c r="Y23" s="1">
         <v>1972</v>
       </c>
       <c r="Z23">
-        <v>23.54796320630749</v>
+        <v>2.354796320630749</v>
       </c>
       <c r="AA23">
         <f t="shared" si="9"/>
-        <v>29.002380692402085</v>
+        <v>2.900238069240217</v>
       </c>
       <c r="AB23" s="3">
         <f t="shared" si="10"/>
-        <v>-5.4544174860945951</v>
+        <v>-0.54544174860946804</v>
       </c>
       <c r="AC23">
         <f t="shared" si="11"/>
-        <v>-1.2033353992678613</v>
+        <v>-1.2033353992678473</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2708,55 +2706,55 @@
         <v>1973</v>
       </c>
       <c r="J24">
-        <v>68.996145466733708</v>
+        <v>6.8996145466733712</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
-        <v>57.672700073586384</v>
+        <v>5.7672700073586611</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="4"/>
-        <v>11.323445393147324</v>
+        <v>1.13234453931471</v>
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
-        <v>1.3974846454273344</v>
+        <v>1.3974846454273324</v>
       </c>
       <c r="Q24" s="1">
         <v>1973</v>
       </c>
       <c r="R24">
-        <v>81.488709227766932</v>
+        <v>8.1488709227766929</v>
       </c>
       <c r="S24">
         <f t="shared" si="6"/>
-        <v>69.720323264362378</v>
+        <v>6.9720323264361923</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="7"/>
-        <v>11.768385963404555</v>
+        <v>1.1768385963405006</v>
       </c>
       <c r="U24">
         <f t="shared" si="8"/>
-        <v>1.3805525480278764</v>
+        <v>1.380552548027894</v>
       </c>
       <c r="Y24" s="1">
         <v>1973</v>
       </c>
       <c r="Z24">
-        <v>27.996057818659658</v>
+        <v>2.7996057818659659</v>
       </c>
       <c r="AA24">
         <f t="shared" si="9"/>
-        <v>29.539174585237788</v>
+        <v>2.9539174585237902</v>
       </c>
       <c r="AB24" s="3">
         <f t="shared" si="10"/>
-        <v>-1.5431167665781302</v>
+        <v>-0.1543116766578243</v>
       </c>
       <c r="AC24">
         <f t="shared" si="11"/>
-        <v>-0.34043727587064815</v>
+        <v>-0.34043727587064287</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2782,55 +2780,55 @@
         <v>1974</v>
       </c>
       <c r="J25">
-        <v>68.996145466733708</v>
+        <v>6.8996145466733712</v>
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
-        <v>59.387848121002662</v>
+        <v>5.9387848121002662</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="4"/>
-        <v>9.6082973457310459</v>
+        <v>0.96082973457310494</v>
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
-        <v>1.1858094019233165</v>
+        <v>1.1858094019233432</v>
       </c>
       <c r="Q25" s="1">
         <v>1974</v>
       </c>
       <c r="R25">
-        <v>81.488709227766932</v>
+        <v>8.1488709227766929</v>
       </c>
       <c r="S25">
         <f t="shared" si="6"/>
-        <v>71.664626155434235</v>
+        <v>7.1664626155434235</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="7"/>
-        <v>9.824083072332698</v>
+        <v>0.98240830723326944</v>
       </c>
       <c r="U25">
         <f t="shared" si="8"/>
-        <v>1.152465848734179</v>
+        <v>1.1524658487341413</v>
       </c>
       <c r="Y25" s="1">
         <v>1974</v>
       </c>
       <c r="Z25">
-        <v>27.996057818659658</v>
+        <v>2.7996057818659659</v>
       </c>
       <c r="AA25">
         <f t="shared" si="9"/>
-        <v>30.075968478073491</v>
+        <v>3.0075968478073634</v>
       </c>
       <c r="AB25" s="3">
         <f t="shared" si="10"/>
-        <v>-2.0799106594138337</v>
+        <v>-0.20799106594139749</v>
       </c>
       <c r="AC25">
         <f t="shared" si="11"/>
-        <v>-0.45886295469093491</v>
+        <v>-0.45886295469093547</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2856,55 +2854,55 @@
         <v>1975</v>
       </c>
       <c r="J26">
-        <v>65.626589791419363</v>
+        <v>6.5626589791419363</v>
       </c>
       <c r="K26">
         <f t="shared" si="3"/>
-        <v>61.10299616841894</v>
+        <v>6.1102996168419281</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="4"/>
-        <v>4.5235936230004228</v>
+        <v>0.45235936230000817</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>0.55827995904160643</v>
+        <v>0.55827995904159089</v>
       </c>
       <c r="Q26" s="1">
         <v>1975</v>
       </c>
       <c r="R26">
-        <v>73.914181057038206</v>
+        <v>7.3914181057038206</v>
       </c>
       <c r="S26">
         <f t="shared" si="6"/>
-        <v>73.608929046506546</v>
+        <v>7.3608929046505978</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="7"/>
-        <v>0.30525201053166029</v>
+        <v>3.0525201053222872E-2</v>
       </c>
       <c r="U26">
         <f t="shared" si="8"/>
-        <v>3.5809196115808628E-2</v>
+        <v>3.5809196115829132E-2</v>
       </c>
       <c r="Y26" s="1">
         <v>1975</v>
       </c>
       <c r="Z26">
-        <v>28.844290657439448</v>
+        <v>2.8844290657439449</v>
       </c>
       <c r="AA26">
         <f t="shared" si="9"/>
-        <v>30.612762370909195</v>
+        <v>3.0612762370909365</v>
       </c>
       <c r="AB26" s="3">
         <f t="shared" si="10"/>
-        <v>-1.7684717134697472</v>
+        <v>-0.17684717134699168</v>
       </c>
       <c r="AC26">
         <f t="shared" si="11"/>
-        <v>-0.39015433285906986</v>
+        <v>-0.39015433285907697</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2930,55 +2928,55 @@
         <v>1976</v>
       </c>
       <c r="J27">
-        <v>58.96042126719891</v>
+        <v>5.896042126719891</v>
       </c>
       <c r="K27">
         <f t="shared" si="3"/>
-        <v>62.818144215835673</v>
+        <v>6.28181442158359</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="4"/>
-        <v>-3.8577229486367628</v>
+        <v>-0.38577229486369902</v>
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
-        <v>-0.47610143378224579</v>
+        <v>-0.47610143378224629</v>
       </c>
       <c r="Q27" s="1">
         <v>1976</v>
       </c>
       <c r="R27">
-        <v>71.21999505073002</v>
+        <v>7.1219995050730018</v>
       </c>
       <c r="S27">
         <f t="shared" si="6"/>
-        <v>75.553231937578403</v>
+        <v>7.5553231937577721</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="7"/>
-        <v>-4.3332368868483826</v>
+        <v>-0.43332368868477023</v>
       </c>
       <c r="U27">
         <f t="shared" si="8"/>
-        <v>-0.50833319402929533</v>
+        <v>-0.50833319402926602</v>
       </c>
       <c r="Y27" s="1">
         <v>1976</v>
       </c>
       <c r="Z27">
-        <v>38.251599147121539</v>
+        <v>3.8251599147121538</v>
       </c>
       <c r="AA27">
         <f t="shared" si="9"/>
-        <v>31.149556263745126</v>
+        <v>3.1149556263745097</v>
       </c>
       <c r="AB27" s="3">
         <f t="shared" si="10"/>
-        <v>7.1020428833764129</v>
+        <v>0.71020428833764404</v>
       </c>
       <c r="AC27">
         <f t="shared" si="11"/>
-        <v>1.5668290207840649</v>
+        <v>1.5668290207840951</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3004,55 +3002,55 @@
         <v>1977</v>
       </c>
       <c r="J28">
-        <v>56.323806263905531</v>
+        <v>5.6323806263905531</v>
       </c>
       <c r="K28">
         <f t="shared" si="3"/>
-        <v>64.533292263251951</v>
+        <v>6.4533292263251951</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="4"/>
-        <v>-8.2094859993464198</v>
+        <v>-0.82094859993464198</v>
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>-1.0131748979758484</v>
+        <v>-1.0131748979758202</v>
       </c>
       <c r="Q28" s="1">
         <v>1977</v>
       </c>
       <c r="R28">
-        <v>66.252686887986627</v>
+        <v>6.6252686887986627</v>
       </c>
       <c r="S28">
         <f t="shared" si="6"/>
-        <v>77.497534828650259</v>
+        <v>7.7497534828650032</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="7"/>
-        <v>-11.244847940663632</v>
+        <v>-1.1244847940663405</v>
       </c>
       <c r="U28">
         <f t="shared" si="8"/>
-        <v>-1.3191361606378003</v>
+        <v>-1.3191361606378302</v>
       </c>
       <c r="Y28" s="1">
         <v>1977</v>
       </c>
       <c r="Z28">
-        <v>32.10526315789474</v>
+        <v>3.2105263157894739</v>
       </c>
       <c r="AA28">
         <f t="shared" si="9"/>
-        <v>31.686350156580829</v>
+        <v>3.1686350156580971</v>
       </c>
       <c r="AB28" s="3">
         <f t="shared" si="10"/>
-        <v>0.41891300131391063</v>
+        <v>4.1891300131376763E-2</v>
       </c>
       <c r="AC28">
         <f t="shared" si="11"/>
-        <v>9.2419189579753952E-2</v>
+        <v>9.2419189579751218E-2</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3078,55 +3076,55 @@
         <v>1978</v>
       </c>
       <c r="J29">
-        <v>74.847268284168265</v>
+        <v>7.4847268284168269</v>
       </c>
       <c r="K29">
         <f t="shared" si="3"/>
-        <v>66.248440310668229</v>
+        <v>6.624844031066857</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="4"/>
-        <v>8.5988279735000361</v>
+        <v>0.85988279734996986</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>1.0612255938382147</v>
+        <v>1.0612255938381991</v>
       </c>
       <c r="Q29" s="1">
         <v>1978</v>
       </c>
       <c r="R29">
-        <v>73.973245716967853</v>
+        <v>7.3973245716967853</v>
       </c>
       <c r="S29">
         <f t="shared" si="6"/>
-        <v>79.441837719722116</v>
+        <v>7.9441837719721775</v>
       </c>
       <c r="T29" s="3">
         <f t="shared" si="7"/>
-        <v>-5.4685920027542636</v>
+        <v>-0.54685920027539225</v>
       </c>
       <c r="U29">
         <f t="shared" si="8"/>
-        <v>-0.64152201049524549</v>
+        <v>-0.64152201049525703</v>
       </c>
       <c r="Y29" s="1">
         <v>1978</v>
       </c>
       <c r="Z29">
-        <v>36.244640036109232</v>
+        <v>3.6244640036109232</v>
       </c>
       <c r="AA29">
         <f t="shared" si="9"/>
-        <v>32.223144049416533</v>
+        <v>3.2223144049416703</v>
       </c>
       <c r="AB29" s="3">
         <f t="shared" si="10"/>
-        <v>4.0214959866926989</v>
+        <v>0.40214959866925293</v>
       </c>
       <c r="AC29">
         <f t="shared" si="11"/>
-        <v>0.88720903582057042</v>
+        <v>0.88720903582055932</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3152,55 +3150,55 @@
         <v>1979</v>
       </c>
       <c r="J30">
-        <v>73.188405797101453</v>
+        <v>7.3188405797101455</v>
       </c>
       <c r="K30">
         <f t="shared" si="3"/>
-        <v>67.963588358084507</v>
+        <v>6.7963588358084621</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="4"/>
-        <v>5.2248174390169453</v>
+        <v>0.52248174390168334</v>
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
-        <v>0.6448215973740602</v>
+        <v>0.64482159737407307</v>
       </c>
       <c r="Q30" s="1">
         <v>1979</v>
       </c>
       <c r="R30">
-        <v>80.316058563792708</v>
+        <v>8.0316058563792705</v>
       </c>
       <c r="S30">
         <f t="shared" si="6"/>
-        <v>81.386140610794428</v>
+        <v>8.1386140610794087</v>
       </c>
       <c r="T30" s="3">
         <f t="shared" si="7"/>
-        <v>-1.0700820470017192</v>
+        <v>-0.10700820470013817</v>
       </c>
       <c r="U30">
         <f t="shared" si="8"/>
-        <v>-0.12553161505588201</v>
+        <v>-0.12553161505588989</v>
       </c>
       <c r="Y30" s="1">
         <v>1979</v>
       </c>
       <c r="Z30">
-        <v>37.800195738914404</v>
+        <v>3.7800195738914404</v>
       </c>
       <c r="AA30">
         <f t="shared" si="9"/>
-        <v>32.759937942252236</v>
+        <v>3.2759937942252435</v>
       </c>
       <c r="AB30" s="3">
         <f t="shared" si="10"/>
-        <v>5.0402577966621678</v>
+        <v>0.50402577966619688</v>
       </c>
       <c r="AC30">
         <f t="shared" si="11"/>
-        <v>1.1119648695065265</v>
+        <v>1.1119648695065081</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3226,55 +3224,55 @@
         <v>1980</v>
       </c>
       <c r="J31">
-        <v>75.142413257379602</v>
+        <v>7.5142413257379603</v>
       </c>
       <c r="K31">
         <f t="shared" si="3"/>
-        <v>69.67873640550124</v>
+        <v>6.967873640550124</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="4"/>
-        <v>5.4636768518783612</v>
+        <v>0.54636768518783629</v>
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
-        <v>0.67430046624303752</v>
+        <v>0.67430046624306428</v>
       </c>
       <c r="Q31" s="1">
         <v>1980</v>
       </c>
       <c r="R31">
-        <v>81.252806466097894</v>
+        <v>8.1252806466097898</v>
       </c>
       <c r="S31">
         <f t="shared" si="6"/>
-        <v>83.330443501866284</v>
+        <v>8.333044350186583</v>
       </c>
       <c r="T31" s="3">
         <f t="shared" si="7"/>
-        <v>-2.0776370357683902</v>
+        <v>-0.20776370357679319</v>
       </c>
       <c r="U31">
         <f t="shared" si="8"/>
-        <v>-0.24372816395778621</v>
+        <v>-0.2437281639577808</v>
       </c>
       <c r="Y31" s="1">
         <v>1980</v>
       </c>
       <c r="Z31">
-        <v>36.485050842312944</v>
+        <v>3.6485050842312945</v>
       </c>
       <c r="AA31">
         <f t="shared" si="9"/>
-        <v>33.29673183508794</v>
+        <v>3.3296731835088167</v>
       </c>
       <c r="AB31" s="3">
         <f t="shared" si="10"/>
-        <v>3.1883190072250045</v>
+        <v>0.3188319007224778</v>
       </c>
       <c r="AC31">
         <f t="shared" si="11"/>
-        <v>0.7033963086495153</v>
+        <v>0.7033963086494921</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3300,55 +3298,55 @@
         <v>1981</v>
       </c>
       <c r="J32">
-        <v>59.639702061319937</v>
+        <v>5.9639702061319939</v>
       </c>
       <c r="K32">
         <f t="shared" si="3"/>
-        <v>71.393884452917519</v>
+        <v>7.139388445291786</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="4"/>
-        <v>-11.754182391597581</v>
+        <v>-1.175418239159792</v>
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
-        <v>-1.4506441141801734</v>
+        <v>-1.4506441141801869</v>
       </c>
       <c r="Q32" s="1">
         <v>1981</v>
       </c>
       <c r="R32">
-        <v>91.223053233611964</v>
+        <v>9.1223053233611964</v>
       </c>
       <c r="S32">
         <f t="shared" si="6"/>
-        <v>85.274746392938141</v>
+        <v>8.5274746392937573</v>
       </c>
       <c r="T32" s="3">
         <f t="shared" si="7"/>
-        <v>5.9483068406738226</v>
+        <v>0.59483068406743911</v>
       </c>
       <c r="U32">
         <f t="shared" si="8"/>
-        <v>0.69779748819252596</v>
+        <v>0.69779748819255161</v>
       </c>
       <c r="Y32" s="1">
         <v>1981</v>
       </c>
       <c r="Z32">
-        <v>35.571715921398734</v>
+        <v>3.5571715921398734</v>
       </c>
       <c r="AA32">
         <f t="shared" si="9"/>
-        <v>33.83352572792387</v>
+        <v>3.3833525727923899</v>
       </c>
       <c r="AB32" s="3">
         <f t="shared" si="10"/>
-        <v>1.738190193474864</v>
+        <v>0.17381901934748356</v>
       </c>
       <c r="AC32">
         <f t="shared" si="11"/>
-        <v>0.38347372488461445</v>
+        <v>0.3834737248846361</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3374,55 +3372,55 @@
         <v>1982</v>
       </c>
       <c r="J33">
-        <v>72.033310201249137</v>
+        <v>7.2033310201249137</v>
       </c>
       <c r="K33">
         <f t="shared" si="3"/>
-        <v>73.109032500333797</v>
+        <v>7.310903250033391</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="4"/>
-        <v>-1.07572229908466</v>
+        <v>-0.10757222990847737</v>
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
-        <v>-0.13276042260284673</v>
+        <v>-0.13276042260283349</v>
       </c>
       <c r="Q33" s="1">
         <v>1982</v>
       </c>
       <c r="R33">
-        <v>91.208315288003462</v>
+        <v>9.1208315288003465</v>
       </c>
       <c r="S33">
         <f t="shared" si="6"/>
-        <v>87.219049284009998</v>
+        <v>8.7219049284009884</v>
       </c>
       <c r="T33" s="3">
         <f t="shared" si="7"/>
-        <v>3.989266003993464</v>
+        <v>0.39892660039935812</v>
       </c>
       <c r="U33">
         <f t="shared" si="8"/>
-        <v>0.46798187650372319</v>
+        <v>0.46798187650369416</v>
       </c>
       <c r="Y33" s="1">
         <v>1982</v>
       </c>
       <c r="Z33">
-        <v>37.4900207568258</v>
+        <v>3.7490020756825801</v>
       </c>
       <c r="AA33">
         <f t="shared" si="9"/>
-        <v>34.370319620759574</v>
+        <v>3.4370319620759631</v>
       </c>
       <c r="AB33" s="3">
         <f t="shared" si="10"/>
-        <v>3.1197011360662259</v>
+        <v>0.31197011360661708</v>
       </c>
       <c r="AC33">
         <f t="shared" si="11"/>
-        <v>0.68825806270514778</v>
+        <v>0.68825806270516243</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3448,55 +3446,55 @@
         <v>1983</v>
       </c>
       <c r="J34">
-        <v>70.943297622158354</v>
+        <v>7.0943297622158354</v>
       </c>
       <c r="K34" s="16">
         <f>N$9*I34+O$9</f>
-        <v>85.769866649379765</v>
+        <v>8.5769866649379765</v>
       </c>
       <c r="L34" s="17">
         <f t="shared" si="4"/>
-        <v>-14.82656902722141</v>
+        <v>-1.482656902722141</v>
       </c>
       <c r="M34" s="16">
         <f>(L34-N$4)/O$4</f>
-        <v>-0.80579459394048558</v>
+        <v>-0.80579459394047992</v>
       </c>
       <c r="Q34" s="1">
         <v>1983</v>
       </c>
       <c r="R34">
-        <v>111.09582760201742</v>
+        <v>11.109582760201743</v>
       </c>
       <c r="S34" s="16">
         <f>V$9*Q34+W$9</f>
-        <v>121.57044455763872</v>
+        <v>12.157044455763874</v>
       </c>
       <c r="T34" s="17">
         <f t="shared" si="7"/>
-        <v>-10.4746169556213</v>
+        <v>-1.0474616955621308</v>
       </c>
       <c r="U34" s="16">
         <f>(T34-V$4)/W$4</f>
-        <v>-0.49749074736137106</v>
+        <v>-0.49749074736137255</v>
       </c>
       <c r="Y34" s="1">
         <v>1983</v>
       </c>
       <c r="Z34">
-        <v>102.76210853919471</v>
+        <v>10.276210853919471</v>
       </c>
       <c r="AA34" s="16">
         <f>AD$9*Y34+AE$9</f>
-        <v>99.948742339809087</v>
+        <v>9.9948742339808945</v>
       </c>
       <c r="AB34" s="17">
         <f t="shared" si="10"/>
-        <v>2.8133661993856265</v>
+        <v>0.2813366199385765</v>
       </c>
       <c r="AC34" s="16">
         <f>(AB34-AD$4)/AE$4</f>
-        <v>0.19817209111198075</v>
+        <v>0.19817209111198572</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3522,55 +3520,55 @@
         <v>1985</v>
       </c>
       <c r="J35">
-        <v>46.775488359646772</v>
+        <v>4.6775488359646769</v>
       </c>
       <c r="K35" s="16">
         <f t="shared" ref="K35:K60" si="15">N$9*I35+O$9</f>
-        <v>82.900652998460373</v>
+        <v>8.2900652998460487</v>
       </c>
       <c r="L35" s="17">
         <f t="shared" si="4"/>
-        <v>-36.125164638813601</v>
+        <v>-3.6125164638813718</v>
       </c>
       <c r="M35" s="16">
         <f t="shared" ref="M35:M60" si="16">(L35-N$4)/O$4</f>
-        <v>-1.9633309849177771</v>
+        <v>-1.9633309849177776</v>
       </c>
       <c r="Q35" s="1">
         <v>1985</v>
       </c>
       <c r="R35">
-        <v>132.83616337769618</v>
+        <v>13.283616337769619</v>
       </c>
       <c r="S35" s="16">
         <f t="shared" ref="S35:S60" si="17">V$9*Q35+W$9</f>
-        <v>122.11552788532248</v>
+        <v>12.211552788532252</v>
       </c>
       <c r="T35" s="17">
         <f t="shared" si="7"/>
-        <v>10.720635492373702</v>
+        <v>1.0720635492373667</v>
       </c>
       <c r="U35" s="16">
         <f t="shared" ref="U35:U60" si="18">(T35-V$4)/W$4</f>
-        <v>0.50917536993346879</v>
+        <v>0.50917536993346635</v>
       </c>
       <c r="Y35" s="1">
         <v>1985</v>
       </c>
       <c r="Z35">
-        <v>95.308537616229927</v>
+        <v>9.5308537616229927</v>
       </c>
       <c r="AA35" s="16">
         <f t="shared" ref="AA35:AA60" si="19">AD$9*Y35+AE$9</f>
-        <v>101.06799316228467</v>
+        <v>10.106799316228461</v>
       </c>
       <c r="AB35" s="17">
         <f t="shared" si="10"/>
-        <v>-5.7594555460547383</v>
+        <v>-0.57594555460546815</v>
       </c>
       <c r="AC35" s="16">
         <f t="shared" ref="AC35:AC60" si="20">(AB35-AD$4)/AE$4</f>
-        <v>-0.40569313354135905</v>
+        <v>-0.40569313354135939</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3596,55 +3594,55 @@
         <v>1986</v>
       </c>
       <c r="J36">
-        <v>63.088512241054616</v>
+        <v>6.308851224105462</v>
       </c>
       <c r="K36" s="16">
         <f t="shared" si="15"/>
-        <v>81.46604617300045</v>
+        <v>8.1466046173000564</v>
       </c>
       <c r="L36" s="17">
         <f t="shared" si="4"/>
-        <v>-18.377533931945834</v>
+        <v>-1.8377533931945944</v>
       </c>
       <c r="M36" s="16">
         <f t="shared" si="16"/>
-        <v>-0.99878248738002195</v>
+        <v>-0.99878248738002218</v>
       </c>
       <c r="Q36" s="1">
         <v>1986</v>
       </c>
       <c r="R36">
-        <v>149.96547756041426</v>
+        <v>14.996547756041426</v>
       </c>
       <c r="S36" s="16">
         <f t="shared" si="17"/>
-        <v>122.38806954916441</v>
+        <v>12.238806954916441</v>
       </c>
       <c r="T36" s="17">
         <f t="shared" si="7"/>
-        <v>27.577408011249844</v>
+        <v>2.7577408011249851</v>
       </c>
       <c r="U36" s="16">
         <f t="shared" si="18"/>
-        <v>1.3097858737873458</v>
+        <v>1.309785873787346</v>
       </c>
       <c r="Y36" s="1">
         <v>1986</v>
       </c>
       <c r="Z36">
-        <v>90.139652983495552</v>
+        <v>9.0139652983495555</v>
       </c>
       <c r="AA36" s="16">
         <f t="shared" si="19"/>
-        <v>101.62761857352234</v>
+        <v>10.162761857352237</v>
       </c>
       <c r="AB36" s="17">
         <f t="shared" si="10"/>
-        <v>-11.487965590026789</v>
+        <v>-1.1487965590026814</v>
       </c>
       <c r="AC36" s="16">
         <f t="shared" si="20"/>
-        <v>-0.80920648157894903</v>
+        <v>-0.80920648157895458</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3670,55 +3668,55 @@
         <v>1987</v>
       </c>
       <c r="J37">
-        <v>58.326585695006749</v>
+        <v>5.8326585695006745</v>
       </c>
       <c r="K37" s="16">
         <f t="shared" si="15"/>
-        <v>80.031439347540527</v>
+        <v>8.003143934754064</v>
       </c>
       <c r="L37" s="17">
         <f t="shared" si="4"/>
-        <v>-21.704853652533778</v>
+        <v>-2.1704853652533895</v>
       </c>
       <c r="M37" s="16">
         <f t="shared" si="16"/>
-        <v>-1.1796157090268373</v>
+        <v>-1.179615709026838</v>
       </c>
       <c r="Q37" s="1">
         <v>1987</v>
       </c>
       <c r="R37">
-        <v>132.49422632794457</v>
+        <v>13.249422632794458</v>
       </c>
       <c r="S37" s="16">
         <f t="shared" si="17"/>
-        <v>122.66061121300635</v>
+        <v>12.266061121300631</v>
       </c>
       <c r="T37" s="17">
         <f t="shared" si="7"/>
-        <v>9.833615114938226</v>
+        <v>0.98336151149382722</v>
       </c>
       <c r="U37" s="16">
         <f t="shared" si="18"/>
-        <v>0.46704643745175906</v>
+        <v>0.46704643745176055</v>
       </c>
       <c r="Y37" s="1">
         <v>1987</v>
       </c>
       <c r="Z37">
-        <v>89.740341988600377</v>
+        <v>8.9740341988600374</v>
       </c>
       <c r="AA37" s="16">
         <f t="shared" si="19"/>
-        <v>102.18724398476024</v>
+        <v>10.218724398476013</v>
       </c>
       <c r="AB37" s="17">
         <f t="shared" si="10"/>
-        <v>-12.446901996159866</v>
+        <v>-1.2446901996159756</v>
       </c>
       <c r="AC37" s="16">
         <f t="shared" si="20"/>
-        <v>-0.87675347666557923</v>
+        <v>-0.87675347666557524</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3744,55 +3742,55 @@
         <v>1988</v>
       </c>
       <c r="J38">
-        <v>58.896700919415899</v>
+        <v>5.8896700919415901</v>
       </c>
       <c r="K38" s="16">
         <f t="shared" si="15"/>
-        <v>78.596832522080604</v>
+        <v>7.8596832522080717</v>
       </c>
       <c r="L38" s="17">
         <f t="shared" si="4"/>
-        <v>-19.700131602664705</v>
+        <v>-1.9700131602664817</v>
       </c>
       <c r="M38" s="16">
         <f t="shared" si="16"/>
-        <v>-1.0706630452533139</v>
+        <v>-1.0706630452533141</v>
       </c>
       <c r="Q38" s="1">
         <v>1988</v>
       </c>
       <c r="R38">
-        <v>109.29909784871617</v>
+        <v>10.929909784871617</v>
       </c>
       <c r="S38" s="16">
         <f t="shared" si="17"/>
-        <v>122.93315287684828</v>
+        <v>12.29331528768482</v>
       </c>
       <c r="T38" s="17">
         <f t="shared" si="7"/>
-        <v>-13.63405502813211</v>
+        <v>-1.3634055028132028</v>
       </c>
       <c r="U38" s="16">
         <f t="shared" si="18"/>
-        <v>-0.6475479012023867</v>
+        <v>-0.64754790120238404</v>
       </c>
       <c r="Y38" s="1">
         <v>1988</v>
       </c>
       <c r="Z38">
-        <v>85.804283914321715</v>
+        <v>8.5804283914321715</v>
       </c>
       <c r="AA38" s="16">
         <f t="shared" si="19"/>
-        <v>102.74686939599815</v>
+        <v>10.274686939599803</v>
       </c>
       <c r="AB38" s="17">
         <f t="shared" si="10"/>
-        <v>-16.942585481676431</v>
+        <v>-1.6942585481676318</v>
       </c>
       <c r="AC38" s="16">
         <f t="shared" si="20"/>
-        <v>-1.1934271459152268</v>
+        <v>-1.1934271459152226</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3818,55 +3816,55 @@
         <v>1989</v>
       </c>
       <c r="J39">
-        <v>82.43942281513749</v>
+        <v>8.2439422815137497</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="15"/>
-        <v>77.162225696621135</v>
+        <v>7.7162225696620794</v>
       </c>
       <c r="L39" s="17">
         <f t="shared" si="4"/>
-        <v>5.2771971185163551</v>
+        <v>0.52771971185167033</v>
       </c>
       <c r="M39" s="16">
         <f t="shared" si="16"/>
-        <v>0.28680518746121025</v>
+        <v>0.28680518746123451</v>
       </c>
       <c r="Q39" s="1">
         <v>1989</v>
       </c>
       <c r="R39">
-        <v>118.85014137606032</v>
+        <v>11.885014137606031</v>
       </c>
       <c r="S39" s="16">
         <f t="shared" si="17"/>
-        <v>123.2056945406901</v>
+        <v>12.320569454069009</v>
       </c>
       <c r="T39" s="17">
         <f t="shared" si="7"/>
-        <v>-4.3555531646297823</v>
+        <v>-0.43555531646297752</v>
       </c>
       <c r="U39" s="16">
         <f t="shared" si="18"/>
-        <v>-0.20686650483013497</v>
+        <v>-0.20686650483013563</v>
       </c>
       <c r="Y39" s="1">
         <v>1989</v>
       </c>
       <c r="Z39">
-        <v>125.7988922028121</v>
+        <v>12.57988922028121</v>
       </c>
       <c r="AA39" s="16">
         <f t="shared" si="19"/>
-        <v>103.30649480723582</v>
+        <v>10.330649480723579</v>
       </c>
       <c r="AB39" s="17">
         <f t="shared" si="10"/>
-        <v>22.492397395576276</v>
+        <v>2.2492397395576305</v>
       </c>
       <c r="AC39" s="16">
         <f t="shared" si="20"/>
-        <v>1.5843530881178067</v>
+        <v>1.5843530881178027</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3892,55 +3890,55 @@
         <v>1990</v>
       </c>
       <c r="J40">
-        <v>76.792090085141439</v>
+        <v>7.6792090085141442</v>
       </c>
       <c r="K40" s="16">
         <f t="shared" si="15"/>
-        <v>75.727618871161212</v>
+        <v>7.572761887116144</v>
       </c>
       <c r="L40" s="17">
         <f t="shared" si="4"/>
-        <v>1.0644712139802266</v>
+        <v>0.10644712139800028</v>
       </c>
       <c r="M40" s="16">
         <f t="shared" si="16"/>
-        <v>5.7851897364504253E-2</v>
+        <v>5.7851897364497529E-2</v>
       </c>
       <c r="Q40" s="1">
         <v>1990</v>
       </c>
       <c r="R40">
-        <v>81.807372175980973</v>
+        <v>8.1807372175980966</v>
       </c>
       <c r="S40" s="16">
         <f t="shared" si="17"/>
-        <v>123.47823620453204</v>
+        <v>12.347823620453198</v>
       </c>
       <c r="T40" s="17">
         <f t="shared" si="7"/>
-        <v>-41.670864028551065</v>
+        <v>-4.1670864028551016</v>
       </c>
       <c r="U40" s="16">
         <f t="shared" si="18"/>
-        <v>-1.9791529730003701</v>
+        <v>-1.9791529730003694</v>
       </c>
       <c r="Y40" s="1">
         <v>1990</v>
       </c>
       <c r="Z40">
-        <v>90.986099044309299</v>
+        <v>9.0986099044309299</v>
       </c>
       <c r="AA40" s="16">
         <f t="shared" si="19"/>
-        <v>103.86612021847372</v>
+        <v>10.386612021847355</v>
       </c>
       <c r="AB40" s="17">
         <f t="shared" si="10"/>
-        <v>-12.880021174164426</v>
+        <v>-1.2880021174164256</v>
       </c>
       <c r="AC40" s="16">
         <f t="shared" si="20"/>
-        <v>-0.90726217234288076</v>
+        <v>-0.90726217234287254</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -3966,55 +3964,55 @@
         <v>1991</v>
       </c>
       <c r="J41">
-        <v>77.831997211571974</v>
+        <v>7.7831997211571977</v>
       </c>
       <c r="K41" s="16">
         <f t="shared" si="15"/>
-        <v>74.293012045701289</v>
+        <v>7.4293012045701516</v>
       </c>
       <c r="L41" s="17">
         <f t="shared" si="4"/>
-        <v>3.5389851658706846</v>
+        <v>0.35389851658704607</v>
       </c>
       <c r="M41" s="16">
         <f t="shared" si="16"/>
-        <v>0.19233681841419359</v>
+        <v>0.19233681841418684</v>
       </c>
       <c r="Q41" s="1">
         <v>1991</v>
       </c>
       <c r="R41">
-        <v>121.83738639154998</v>
+        <v>12.183738639154999</v>
       </c>
       <c r="S41" s="16">
         <f t="shared" si="17"/>
-        <v>123.75077786837397</v>
+        <v>12.375077786837394</v>
       </c>
       <c r="T41" s="17">
         <f t="shared" si="7"/>
-        <v>-1.913391476823989</v>
+        <v>-0.19133914768239535</v>
       </c>
       <c r="U41" s="16">
         <f t="shared" si="18"/>
-        <v>-9.0876311738463139E-2</v>
+        <v>-9.0876311738462404E-2</v>
       </c>
       <c r="Y41" s="1">
         <v>1991</v>
       </c>
       <c r="Z41">
-        <v>112.70903010033445</v>
+        <v>11.270903010033445</v>
       </c>
       <c r="AA41" s="16">
         <f t="shared" si="19"/>
-        <v>104.4257456297114</v>
+        <v>10.442574562971146</v>
       </c>
       <c r="AB41" s="17">
         <f t="shared" si="10"/>
-        <v>8.2832844706230446</v>
+        <v>0.82832844706229913</v>
       </c>
       <c r="AC41" s="16">
         <f t="shared" si="20"/>
-        <v>0.58347036556321508</v>
+        <v>0.58347036556320631</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4040,55 +4038,55 @@
         <v>1992</v>
       </c>
       <c r="J42">
-        <v>74.93644936449364</v>
+        <v>7.493644936449364</v>
       </c>
       <c r="K42" s="16">
         <f t="shared" si="15"/>
-        <v>72.858405220241366</v>
+        <v>7.2858405220241593</v>
       </c>
       <c r="L42" s="17">
         <f t="shared" si="4"/>
-        <v>2.0780441442522744</v>
+        <v>0.2078044144252047</v>
       </c>
       <c r="M42" s="16">
         <f t="shared" si="16"/>
-        <v>0.11293757404925336</v>
+        <v>0.11293757404924644</v>
       </c>
       <c r="Q42" s="1">
         <v>1992</v>
       </c>
       <c r="R42">
-        <v>115.12586377097729</v>
+        <v>11.51258637709773</v>
       </c>
       <c r="S42" s="16">
         <f t="shared" si="17"/>
-        <v>124.02331953221579</v>
+        <v>12.402331953221584</v>
       </c>
       <c r="T42" s="17">
         <f t="shared" si="7"/>
-        <v>-8.8974557612385041</v>
+        <v>-0.88974557612385397</v>
       </c>
       <c r="U42" s="16">
         <f t="shared" si="18"/>
-        <v>-0.42258365485124572</v>
+        <v>-0.42258365485124849</v>
       </c>
       <c r="Y42" s="1">
         <v>1992</v>
       </c>
       <c r="Z42">
-        <v>115.76042370971378</v>
+        <v>11.576042370971377</v>
       </c>
       <c r="AA42" s="16">
         <f t="shared" si="19"/>
-        <v>104.9853710409493</v>
+        <v>10.498537104094922</v>
       </c>
       <c r="AB42" s="17">
         <f t="shared" si="10"/>
-        <v>10.775052668764474</v>
+        <v>1.0775052668764555</v>
       </c>
       <c r="AC42" s="16">
         <f t="shared" si="20"/>
-        <v>0.75898925624294078</v>
+        <v>0.75898925624294122</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4114,55 +4112,55 @@
         <v>1993</v>
       </c>
       <c r="J43">
-        <v>79.513581278729632</v>
+        <v>7.9513581278729628</v>
       </c>
       <c r="K43" s="16">
         <f t="shared" si="15"/>
-        <v>71.423798394781898</v>
+        <v>7.142379839478167</v>
       </c>
       <c r="L43" s="17">
         <f t="shared" si="4"/>
-        <v>8.0897828839477341</v>
+        <v>0.8089782883947958</v>
       </c>
       <c r="M43" s="16">
         <f t="shared" si="16"/>
-        <v>0.43966364045984724</v>
+        <v>0.43966364045986472</v>
       </c>
       <c r="Q43" s="1">
         <v>1993</v>
       </c>
       <c r="R43">
-        <v>102.00819265143993</v>
+        <v>10.200819265143993</v>
       </c>
       <c r="S43" s="16">
         <f t="shared" si="17"/>
-        <v>124.29586119605773</v>
+        <v>12.429586119605773</v>
       </c>
       <c r="T43" s="17">
         <f t="shared" si="7"/>
-        <v>-22.287668544617802</v>
+        <v>-2.2287668544617798</v>
       </c>
       <c r="U43" s="16">
         <f t="shared" si="18"/>
-        <v>-1.0585502962238651</v>
+        <v>-1.0585502962238662</v>
       </c>
       <c r="Y43" s="1">
         <v>1993</v>
       </c>
       <c r="Z43">
-        <v>89.108537693006355</v>
+        <v>8.9108537693006351</v>
       </c>
       <c r="AA43" s="16">
         <f t="shared" si="19"/>
-        <v>105.54499645218721</v>
+        <v>10.554499645218712</v>
       </c>
       <c r="AB43" s="17">
         <f t="shared" si="10"/>
-        <v>-16.436458759180852</v>
+        <v>-1.643645875918077</v>
       </c>
       <c r="AC43" s="16">
         <f t="shared" si="20"/>
-        <v>-1.1577758357564207</v>
+        <v>-1.1577758357564187</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4188,55 +4186,55 @@
         <v>1994</v>
       </c>
       <c r="J44">
-        <v>86.734430920717315</v>
+        <v>8.6734430920717323</v>
       </c>
       <c r="K44" s="16">
         <f t="shared" si="15"/>
-        <v>69.989191569321974</v>
+        <v>6.9989191569321747</v>
       </c>
       <c r="L44" s="17">
         <f t="shared" si="4"/>
-        <v>16.745239351395341</v>
+        <v>1.6745239351395576</v>
       </c>
       <c r="M44" s="16">
         <f t="shared" si="16"/>
-        <v>0.91007051724647037</v>
+        <v>0.91007051724648835</v>
       </c>
       <c r="Q44" s="1">
         <v>1994</v>
       </c>
       <c r="R44">
-        <v>118.02506169395834</v>
+        <v>11.802506169395834</v>
       </c>
       <c r="S44" s="16">
         <f t="shared" si="17"/>
-        <v>124.56840285989966</v>
+        <v>12.456840285989962</v>
       </c>
       <c r="T44" s="17">
         <f t="shared" si="7"/>
-        <v>-6.5433411659413281</v>
+        <v>-0.65433411659412855</v>
       </c>
       <c r="U44" s="16">
         <f t="shared" si="18"/>
-        <v>-0.31077524845790283</v>
+        <v>-0.31077524845790183</v>
       </c>
       <c r="Y44" s="1">
         <v>1994</v>
       </c>
       <c r="Z44">
-        <v>101.77382291032016</v>
+        <v>10.177382291032016</v>
       </c>
       <c r="AA44" s="16">
         <f t="shared" si="19"/>
-        <v>106.10462186342488</v>
+        <v>10.610462186342488</v>
       </c>
       <c r="AB44" s="17">
         <f t="shared" si="10"/>
-        <v>-4.3307989531047184</v>
+        <v>-0.4330798953104722</v>
       </c>
       <c r="AC44" s="16">
         <f t="shared" si="20"/>
-        <v>-0.30505928624212036</v>
+        <v>-0.30505928624212503</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4262,55 +4260,55 @@
         <v>1995</v>
       </c>
       <c r="J45">
-        <v>82.184929546432627</v>
+        <v>8.2184929546432635</v>
       </c>
       <c r="K45" s="16">
         <f t="shared" si="15"/>
-        <v>68.554584743862051</v>
+        <v>6.8554584743862392</v>
       </c>
       <c r="L45" s="17">
         <f t="shared" si="4"/>
-        <v>13.630344802570576</v>
+        <v>1.3630344802570242</v>
       </c>
       <c r="M45" s="16">
         <f t="shared" si="16"/>
-        <v>0.7407821819930871</v>
+        <v>0.74078218199307422</v>
       </c>
       <c r="Q45" s="1">
         <v>1995</v>
       </c>
       <c r="R45">
-        <v>113.35852351232087</v>
+        <v>11.335852351232088</v>
       </c>
       <c r="S45" s="16">
         <f t="shared" si="17"/>
-        <v>124.8409445237416</v>
+        <v>12.484094452374151</v>
       </c>
       <c r="T45" s="17">
         <f t="shared" si="7"/>
-        <v>-11.482421011420726</v>
+        <v>-1.1482421011420634</v>
       </c>
       <c r="U45" s="16">
         <f t="shared" si="18"/>
-        <v>-0.54535628698326744</v>
+        <v>-0.54535628698326422</v>
       </c>
       <c r="Y45" s="1">
         <v>1995</v>
       </c>
       <c r="Z45">
-        <v>97.716872162265673</v>
+        <v>9.7716872162265673</v>
       </c>
       <c r="AA45" s="16">
         <f t="shared" si="19"/>
-        <v>106.66424727466278</v>
+        <v>10.666424727466264</v>
       </c>
       <c r="AB45" s="17">
         <f t="shared" si="10"/>
-        <v>-8.9473751123971113</v>
+        <v>-0.89473751123969691</v>
       </c>
       <c r="AC45" s="16">
         <f t="shared" si="20"/>
-        <v>-0.63024857424325009</v>
+        <v>-0.6302485742432441</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4336,55 +4334,55 @@
         <v>1996</v>
       </c>
       <c r="J46">
-        <v>90.644640569657057</v>
+        <v>9.064464056965706</v>
       </c>
       <c r="K46" s="16">
         <f t="shared" si="15"/>
-        <v>67.119977918402128</v>
+        <v>6.7119977918402469</v>
       </c>
       <c r="L46" s="17">
         <f t="shared" si="4"/>
-        <v>23.524662651254928</v>
+        <v>2.3524662651254591</v>
       </c>
       <c r="M46" s="16">
         <f t="shared" si="16"/>
-        <v>1.2785187155471933</v>
+        <v>1.27851871554718</v>
       </c>
       <c r="Q46" s="1">
         <v>1996</v>
       </c>
       <c r="R46">
-        <v>133.38848597001078</v>
+        <v>13.338848597001078</v>
       </c>
       <c r="S46" s="16">
         <f t="shared" si="17"/>
-        <v>125.11348618758342</v>
+        <v>12.51134861875834</v>
       </c>
       <c r="T46" s="17">
         <f t="shared" si="7"/>
-        <v>8.2749997824273578</v>
+        <v>0.82749997824273791</v>
       </c>
       <c r="U46" s="16">
         <f t="shared" si="18"/>
-        <v>0.39302017855323179</v>
+        <v>0.39302017855323212</v>
       </c>
       <c r="Y46" s="1">
         <v>1996</v>
       </c>
       <c r="Z46">
-        <v>114.00022746995603</v>
+        <v>11.400022746995603</v>
       </c>
       <c r="AA46" s="16">
         <f t="shared" si="19"/>
-        <v>107.22387268590046</v>
+        <v>10.722387268590055</v>
       </c>
       <c r="AB46" s="17">
         <f t="shared" si="10"/>
-        <v>6.7763547840555702</v>
+        <v>0.6776354784055485</v>
       </c>
       <c r="AC46" s="16">
         <f t="shared" si="20"/>
-        <v>0.4773230011671401</v>
+        <v>0.47732300116712906</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4410,55 +4408,55 @@
         <v>1997</v>
       </c>
       <c r="J47">
-        <v>85.840160896536062</v>
+        <v>8.5840160896536055</v>
       </c>
       <c r="K47" s="16">
         <f t="shared" si="15"/>
-        <v>65.685371092942205</v>
+        <v>6.5685371092942546</v>
       </c>
       <c r="L47" s="17">
         <f t="shared" si="4"/>
-        <v>20.154789803593857</v>
+        <v>2.0154789803593509</v>
       </c>
       <c r="M47" s="16">
         <f t="shared" si="16"/>
-        <v>1.0953728159175058</v>
+        <v>1.095372815917492</v>
       </c>
       <c r="Q47" s="1">
         <v>1997</v>
       </c>
       <c r="R47">
-        <v>130.83102460766901</v>
+        <v>13.0831024607669</v>
       </c>
       <c r="S47" s="16">
         <f t="shared" si="17"/>
-        <v>125.38602785142535</v>
+        <v>12.53860278514253</v>
       </c>
       <c r="T47" s="17">
         <f t="shared" si="7"/>
-        <v>5.4449967562436541</v>
+        <v>0.54449967562437074</v>
       </c>
       <c r="U47" s="16">
         <f t="shared" si="18"/>
-        <v>0.25860950497003093</v>
+        <v>0.25860950497003266</v>
       </c>
       <c r="Y47" s="1">
         <v>1997</v>
       </c>
       <c r="Z47">
-        <v>112.23800389853703</v>
+        <v>11.223800389853704</v>
       </c>
       <c r="AA47" s="16">
         <f t="shared" si="19"/>
-        <v>107.78349809713836</v>
+        <v>10.778349809713831</v>
       </c>
       <c r="AB47" s="17">
         <f t="shared" si="10"/>
-        <v>4.4545058013986676</v>
+        <v>0.44545058013987315</v>
       </c>
       <c r="AC47" s="16">
         <f t="shared" si="20"/>
-        <v>0.31377313402229168</v>
+        <v>0.31377313402229123</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4484,55 +4482,55 @@
         <v>1998</v>
       </c>
       <c r="J48">
-        <v>90.351161172067734</v>
+        <v>9.0351161172067727</v>
       </c>
       <c r="K48" s="16">
         <f t="shared" si="15"/>
-        <v>64.250764267482737</v>
+        <v>6.4250764267482623</v>
       </c>
       <c r="L48" s="17">
         <f t="shared" si="4"/>
-        <v>26.100396904584997</v>
+        <v>2.6100396904585104</v>
       </c>
       <c r="M48" s="16">
         <f t="shared" si="16"/>
-        <v>1.4185047590445181</v>
+        <v>1.418504759044529</v>
       </c>
       <c r="Q48" s="1">
         <v>1998</v>
       </c>
       <c r="R48">
-        <v>140.18401810717725</v>
+        <v>14.018401810717725</v>
       </c>
       <c r="S48" s="16">
         <f t="shared" si="17"/>
-        <v>125.65856951526729</v>
+        <v>12.565856951526726</v>
       </c>
       <c r="T48" s="17">
         <f t="shared" si="7"/>
-        <v>14.525448591909964</v>
+        <v>1.4525448591909988</v>
       </c>
       <c r="U48" s="16">
         <f t="shared" si="18"/>
-        <v>0.68988453767471147</v>
+        <v>0.68988453767471203</v>
       </c>
       <c r="Y48" s="1">
         <v>1998</v>
       </c>
       <c r="Z48">
-        <v>120.98629915720223</v>
+        <v>12.098629915720222</v>
       </c>
       <c r="AA48" s="16">
         <f t="shared" si="19"/>
-        <v>108.34312350837627</v>
+        <v>10.834312350837607</v>
       </c>
       <c r="AB48" s="17">
         <f t="shared" si="10"/>
-        <v>12.643175648825959</v>
+        <v>1.2643175648826155</v>
       </c>
       <c r="AC48" s="16">
         <f t="shared" si="20"/>
-        <v>0.89057889341635987</v>
+        <v>0.89057889341636842</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4558,55 +4556,55 @@
         <v>1999</v>
       </c>
       <c r="J49">
-        <v>90.303673920304178</v>
+        <v>9.0303673920304171</v>
       </c>
       <c r="K49" s="16">
         <f t="shared" si="15"/>
-        <v>62.816157442022813</v>
+        <v>6.28161574420227</v>
       </c>
       <c r="L49" s="17">
         <f t="shared" si="4"/>
-        <v>27.487516478281364</v>
+        <v>2.7487516478281471</v>
       </c>
       <c r="M49" s="16">
         <f t="shared" si="16"/>
-        <v>1.4938919542601758</v>
+        <v>1.4938919542601867</v>
       </c>
       <c r="Q49" s="1">
         <v>1999</v>
       </c>
       <c r="R49">
-        <v>142.47823047936834</v>
+        <v>14.247823047936834</v>
       </c>
       <c r="S49" s="16">
         <f t="shared" si="17"/>
-        <v>125.93111117910911</v>
+        <v>12.593111117910915</v>
       </c>
       <c r="T49" s="17">
         <f t="shared" si="7"/>
-        <v>16.547119300259226</v>
+        <v>1.6547119300259183</v>
       </c>
       <c r="U49" s="16">
         <f t="shared" si="18"/>
-        <v>0.78590355926533073</v>
+        <v>0.78590355926532818</v>
       </c>
       <c r="Y49" s="1">
         <v>1999</v>
       </c>
       <c r="Z49">
-        <v>124.00022066915332</v>
+        <v>12.400022066915332</v>
       </c>
       <c r="AA49" s="16">
         <f t="shared" si="19"/>
-        <v>108.90274891961394</v>
+        <v>10.890274891961397</v>
       </c>
       <c r="AB49" s="17">
         <f t="shared" si="10"/>
-        <v>15.09747174953938</v>
+        <v>1.5097471749539348</v>
       </c>
       <c r="AC49" s="16">
         <f t="shared" si="20"/>
-        <v>1.0634582685195917</v>
+        <v>1.0634582685195839</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4632,55 +4630,55 @@
         <v>2000</v>
       </c>
       <c r="J50">
-        <v>82.349116596020679</v>
+        <v>8.2349116596020675</v>
       </c>
       <c r="K50" s="16">
         <f t="shared" si="15"/>
-        <v>61.38155061656289</v>
+        <v>6.1381550616563345</v>
       </c>
       <c r="L50" s="17">
         <f t="shared" si="4"/>
-        <v>20.967565979457788</v>
+        <v>2.096756597945733</v>
       </c>
       <c r="M50" s="16">
         <f t="shared" si="16"/>
-        <v>1.1395455876081333</v>
+        <v>1.1395455876081133</v>
       </c>
       <c r="Q50" s="1">
         <v>2000</v>
       </c>
       <c r="R50">
-        <v>136.02309437735559</v>
+        <v>13.60230943773556</v>
       </c>
       <c r="S50" s="16">
         <f t="shared" si="17"/>
-        <v>126.20365284295104</v>
+        <v>12.620365284295104</v>
       </c>
       <c r="T50" s="17">
         <f t="shared" si="7"/>
-        <v>9.8194415344045467</v>
+        <v>0.98194415344045538</v>
       </c>
       <c r="U50" s="16">
         <f t="shared" si="18"/>
-        <v>0.46637326484770475</v>
+        <v>0.46637326484770442</v>
       </c>
       <c r="Y50" s="1">
         <v>2000</v>
       </c>
       <c r="Z50">
-        <v>118.44664552673871</v>
+        <v>11.844664552673871</v>
       </c>
       <c r="AA50" s="16">
         <f t="shared" si="19"/>
-        <v>109.46237433085184</v>
+        <v>10.946237433085173</v>
       </c>
       <c r="AB50" s="17">
         <f t="shared" si="10"/>
-        <v>8.984271195886862</v>
+        <v>0.89842711958869792</v>
       </c>
       <c r="AC50" s="16">
         <f t="shared" si="20"/>
-        <v>0.63284751568949482</v>
+        <v>0.63284751568949793</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4706,55 +4704,55 @@
         <v>2002</v>
       </c>
       <c r="J51">
-        <v>82.065774254762374</v>
+        <v>8.2065774254762367</v>
       </c>
       <c r="K51" s="16">
         <f t="shared" si="15"/>
-        <v>58.512336965643499</v>
+        <v>5.8512336965643499</v>
       </c>
       <c r="L51" s="17">
         <f t="shared" si="4"/>
-        <v>23.553437289118875</v>
+        <v>2.3553437289118868</v>
       </c>
       <c r="M51" s="16">
         <f t="shared" si="16"/>
-        <v>1.2800825599936592</v>
+        <v>1.2800825599936638</v>
       </c>
       <c r="Q51" s="1">
         <v>2002</v>
       </c>
       <c r="R51">
-        <v>136.6053200615732</v>
+        <v>13.66053200615732</v>
       </c>
       <c r="S51" s="16">
         <f t="shared" si="17"/>
-        <v>126.7487361706348</v>
+        <v>12.674873617063483</v>
       </c>
       <c r="T51" s="17">
         <f t="shared" si="7"/>
-        <v>9.8565838909383956</v>
+        <v>0.98565838909383707</v>
       </c>
       <c r="U51" s="16">
         <f t="shared" si="18"/>
-        <v>0.46813733686953374</v>
+        <v>0.46813733686953191</v>
       </c>
       <c r="Y51" s="1">
         <v>2002</v>
       </c>
       <c r="Z51">
-        <v>122.3117293002486</v>
+        <v>12.23117293002486</v>
       </c>
       <c r="AA51" s="16">
         <f t="shared" si="19"/>
-        <v>110.58162515332742</v>
+        <v>11.058162515332739</v>
       </c>
       <c r="AB51" s="17">
         <f t="shared" si="10"/>
-        <v>11.730104146921178</v>
+        <v>1.1730104146921203</v>
       </c>
       <c r="AC51" s="16">
         <f t="shared" si="20"/>
-        <v>0.82626259896925425</v>
+        <v>0.82626259896925069</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -4780,55 +4778,55 @@
         <v>2006</v>
       </c>
       <c r="J52">
-        <v>71.044133476856828</v>
+        <v>7.104413347685683</v>
       </c>
       <c r="K52" s="16">
         <f t="shared" si="15"/>
-        <v>52.773909663804261</v>
+        <v>5.2773909663804375</v>
       </c>
       <c r="L52" s="17">
         <f t="shared" si="4"/>
-        <v>18.270223813052567</v>
+        <v>1.8270223813052455</v>
       </c>
       <c r="M52" s="16">
         <f t="shared" si="16"/>
-        <v>0.992950395442871</v>
+        <v>0.99295039544287012</v>
       </c>
       <c r="Q52" s="1">
         <v>2006</v>
       </c>
       <c r="R52">
-        <v>154.88693317422434</v>
+        <v>15.488693317422435</v>
       </c>
       <c r="S52" s="16">
         <f t="shared" si="17"/>
-        <v>127.83890282600242</v>
+        <v>12.783890282600247</v>
       </c>
       <c r="T52" s="17">
         <f t="shared" si="7"/>
-        <v>27.048030348221914</v>
+        <v>2.7048030348221879</v>
       </c>
       <c r="U52" s="16">
         <f t="shared" si="18"/>
-        <v>1.284643141567926</v>
+        <v>1.284643141567924</v>
       </c>
       <c r="Y52" s="1">
         <v>2006</v>
       </c>
       <c r="Z52">
-        <v>154.92405683488485</v>
+        <v>15.492405683488485</v>
       </c>
       <c r="AA52" s="16">
         <f t="shared" si="19"/>
-        <v>112.82012679827881</v>
+        <v>11.282012679827858</v>
       </c>
       <c r="AB52" s="17">
         <f t="shared" si="10"/>
-        <v>42.103930036606044</v>
+        <v>4.2103930036606272</v>
       </c>
       <c r="AC52" s="16">
         <f t="shared" si="20"/>
-        <v>2.9657795210621929</v>
+        <v>2.9657795210622013</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -4854,55 +4852,55 @@
         <v>2007</v>
       </c>
       <c r="J53">
-        <v>53.354978354978357</v>
+        <v>5.3354978354978355</v>
       </c>
       <c r="K53" s="16">
         <f t="shared" si="15"/>
-        <v>51.339302838344338</v>
+        <v>5.1339302838344452</v>
       </c>
       <c r="L53" s="17">
         <f t="shared" si="4"/>
-        <v>2.015675516634019</v>
+        <v>0.20156755166339035</v>
       </c>
       <c r="M53" s="16">
         <f t="shared" si="16"/>
-        <v>0.10954796294812758</v>
+        <v>0.10954796294812673</v>
       </c>
       <c r="Q53" s="1">
         <v>2007</v>
       </c>
       <c r="R53">
-        <v>154.28409090909091</v>
+        <v>15.42840909090909</v>
       </c>
       <c r="S53" s="16">
         <f t="shared" si="17"/>
-        <v>128.11144448984436</v>
+        <v>12.811144448984436</v>
       </c>
       <c r="T53" s="17">
         <f t="shared" si="7"/>
-        <v>26.172646419246547</v>
+        <v>2.6172646419246544</v>
       </c>
       <c r="U53" s="16">
         <f t="shared" si="18"/>
-        <v>1.2430668808894505</v>
+        <v>1.2430668808894503</v>
       </c>
       <c r="Y53" s="1">
         <v>2007</v>
       </c>
       <c r="Z53">
-        <v>107.78567925453653</v>
+        <v>10.778567925453654</v>
       </c>
       <c r="AA53" s="16">
         <f t="shared" si="19"/>
-        <v>113.37975220951648</v>
+        <v>11.337975220951648</v>
       </c>
       <c r="AB53" s="17">
         <f t="shared" si="10"/>
-        <v>-5.5940729549799499</v>
+        <v>-0.55940729549799428</v>
       </c>
       <c r="AC53" s="16">
         <f t="shared" si="20"/>
-        <v>-0.39404366753371162</v>
+        <v>-0.39404366753371539</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -4928,55 +4926,55 @@
         <v>2008</v>
       </c>
       <c r="J54">
-        <v>44.671689989235738</v>
+        <v>4.4671689989235741</v>
       </c>
       <c r="K54" s="16">
         <f t="shared" si="15"/>
-        <v>49.904696012884415</v>
+        <v>4.9904696012884528</v>
       </c>
       <c r="L54" s="17">
         <f t="shared" si="4"/>
-        <v>-5.2330060236486773</v>
+        <v>-0.52330060236487874</v>
       </c>
       <c r="M54" s="16">
         <f t="shared" si="16"/>
-        <v>-0.28440348918028346</v>
+        <v>-0.28440348918028391</v>
       </c>
       <c r="Q54" s="1">
         <v>2008</v>
       </c>
       <c r="R54">
-        <v>151.20767156128258</v>
+        <v>15.120767156128258</v>
       </c>
       <c r="S54" s="16">
         <f t="shared" si="17"/>
-        <v>128.38398615368629</v>
+        <v>12.838398615368625</v>
       </c>
       <c r="T54" s="17">
         <f t="shared" si="7"/>
-        <v>22.823685407596287</v>
+        <v>2.2823685407596326</v>
       </c>
       <c r="U54" s="16">
         <f t="shared" si="18"/>
-        <v>1.0840083564938763</v>
+        <v>1.0840083564938781</v>
       </c>
       <c r="Y54" s="1">
         <v>2008</v>
       </c>
       <c r="Z54">
-        <v>124.05339805825243</v>
+        <v>12.405339805825243</v>
       </c>
       <c r="AA54" s="16">
         <f t="shared" si="19"/>
-        <v>113.93937762075439</v>
+        <v>11.393937762075424</v>
       </c>
       <c r="AB54" s="17">
         <f t="shared" si="10"/>
-        <v>10.114020437498041</v>
+        <v>1.0114020437498183</v>
       </c>
       <c r="AC54" s="16">
         <f t="shared" si="20"/>
-        <v>0.71242648045104795</v>
+        <v>0.71242648045105283</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5002,55 +5000,55 @@
         <v>2009</v>
       </c>
       <c r="J55">
-        <v>34.099920697858842</v>
+        <v>3.4099920697858841</v>
       </c>
       <c r="K55" s="16">
         <f t="shared" si="15"/>
-        <v>48.470089187424492</v>
+        <v>4.8470089187424605</v>
       </c>
       <c r="L55" s="17">
         <f t="shared" si="4"/>
-        <v>-14.37016848956565</v>
+        <v>-1.4370168489565764</v>
       </c>
       <c r="M55" s="16">
         <f t="shared" si="16"/>
-        <v>-0.78099013073397228</v>
+        <v>-0.78099013073397283</v>
       </c>
       <c r="Q55" s="1">
         <v>2009</v>
       </c>
       <c r="R55">
-        <v>136.4486902927581</v>
+        <v>13.64486902927581</v>
       </c>
       <c r="S55" s="16">
         <f t="shared" si="17"/>
-        <v>128.65652781752812</v>
+        <v>12.865652781752814</v>
       </c>
       <c r="T55" s="17">
         <f t="shared" si="7"/>
-        <v>7.7921624752299863</v>
+        <v>0.77921624752299579</v>
       </c>
       <c r="U55" s="16">
         <f t="shared" si="18"/>
-        <v>0.3700878752690851</v>
+        <v>0.37008787526908304</v>
       </c>
       <c r="Y55" s="1">
         <v>2009</v>
       </c>
       <c r="Z55">
-        <v>102.73987595767967</v>
+        <v>10.273987595767966</v>
       </c>
       <c r="AA55" s="16">
         <f t="shared" si="19"/>
-        <v>114.49900303199206</v>
+        <v>11.449900303199215</v>
       </c>
       <c r="AB55" s="17">
         <f t="shared" si="10"/>
-        <v>-11.759127074312389</v>
+        <v>-1.1759127074312481</v>
       </c>
       <c r="AC55" s="16">
         <f t="shared" si="20"/>
-        <v>-0.8283069592848511</v>
+        <v>-0.82830695928486142</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5076,55 +5074,55 @@
         <v>2010</v>
       </c>
       <c r="J56">
-        <v>35.804916732751785</v>
+        <v>3.5804916732751786</v>
       </c>
       <c r="K56" s="16">
         <f t="shared" si="15"/>
-        <v>47.035482361965023</v>
+        <v>4.7035482361965251</v>
       </c>
       <c r="L56" s="17">
         <f t="shared" si="4"/>
-        <v>-11.230565629213238</v>
+        <v>-1.1230565629213465</v>
       </c>
       <c r="M56" s="16">
         <f t="shared" si="16"/>
-        <v>-0.61035894779830857</v>
+        <v>-0.61035894779831523</v>
       </c>
       <c r="Q56" s="1">
         <v>2010</v>
       </c>
       <c r="R56">
-        <v>136.33261071539175</v>
+        <v>13.633261071539176</v>
       </c>
       <c r="S56" s="16">
         <f t="shared" si="17"/>
-        <v>128.92906948137005</v>
+        <v>12.892906948137004</v>
       </c>
       <c r="T56" s="17">
         <f t="shared" si="7"/>
-        <v>7.4035412340217022</v>
+        <v>0.74035412340217199</v>
       </c>
       <c r="U56" s="16">
         <f t="shared" si="18"/>
-        <v>0.35163035338085435</v>
+        <v>0.35163035338085447</v>
       </c>
       <c r="Y56" s="1">
         <v>2010</v>
       </c>
       <c r="Z56">
-        <v>109.13237924865832</v>
+        <v>10.913237924865832</v>
       </c>
       <c r="AA56" s="16">
         <f t="shared" si="19"/>
-        <v>115.05862844322996</v>
+        <v>11.505862844322991</v>
       </c>
       <c r="AB56" s="17">
         <f t="shared" si="10"/>
-        <v>-5.9262491945716391</v>
+        <v>-0.59262491945715823</v>
       </c>
       <c r="AC56" s="16">
         <f t="shared" si="20"/>
-        <v>-0.41744199372102853</v>
+        <v>-0.4174419937210288</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5150,55 +5148,55 @@
         <v>2011</v>
       </c>
       <c r="J57">
-        <v>23.464566929133859</v>
+        <v>2.3464566929133861</v>
       </c>
       <c r="K57" s="16">
         <f t="shared" si="15"/>
-        <v>45.6008755365051</v>
+        <v>4.5600875536505328</v>
       </c>
       <c r="L57" s="17">
         <f t="shared" si="4"/>
-        <v>-22.136308607371241</v>
+        <v>-2.2136308607371467</v>
       </c>
       <c r="M57" s="16">
         <f t="shared" si="16"/>
-        <v>-1.203064429327438</v>
+        <v>-1.2030644293274446</v>
       </c>
       <c r="Q57" s="1">
         <v>2011</v>
       </c>
       <c r="R57">
-        <v>94.047322540473232</v>
+        <v>9.4047322540473228</v>
       </c>
       <c r="S57" s="16">
         <f t="shared" si="17"/>
-        <v>129.20161114521198</v>
+        <v>12.920161114521193</v>
       </c>
       <c r="T57" s="17">
         <f t="shared" si="7"/>
-        <v>-35.154288604738753</v>
+        <v>-3.5154288604738699</v>
       </c>
       <c r="U57" s="16">
         <f t="shared" si="18"/>
-        <v>-1.6696489604369966</v>
+        <v>-1.6696489604369957</v>
       </c>
       <c r="Y57" s="1">
         <v>2011</v>
       </c>
       <c r="Z57">
-        <v>98.88218594748048</v>
+        <v>9.8882185947480483</v>
       </c>
       <c r="AA57" s="16">
         <f t="shared" si="19"/>
-        <v>115.61825385446787</v>
+        <v>11.561825385446767</v>
       </c>
       <c r="AB57" s="17">
         <f t="shared" si="10"/>
-        <v>-16.736067906987387</v>
+        <v>-1.6736067906987184</v>
       </c>
       <c r="AC57" s="16">
         <f t="shared" si="20"/>
-        <v>-1.1788801524820796</v>
+        <v>-1.1788801524820691</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5224,55 +5222,55 @@
         <v>2012</v>
       </c>
       <c r="J58">
-        <v>24.603174603174605</v>
+        <v>2.4603174603174605</v>
       </c>
       <c r="K58" s="16">
         <f t="shared" si="15"/>
-        <v>44.166268711045177</v>
+        <v>4.4166268711045404</v>
       </c>
       <c r="L58" s="17">
         <f t="shared" si="4"/>
-        <v>-19.563094107870572</v>
+        <v>-1.95630941078708</v>
       </c>
       <c r="M58" s="16">
         <f t="shared" si="16"/>
-        <v>-1.0632153294486983</v>
+        <v>-1.063215329448705</v>
       </c>
       <c r="Q58" s="1">
         <v>2012</v>
       </c>
       <c r="R58">
-        <v>135.78259513412351</v>
+        <v>13.578259513412352</v>
       </c>
       <c r="S58" s="16">
         <f t="shared" si="17"/>
-        <v>129.47415280905392</v>
+        <v>12.947415280905382</v>
       </c>
       <c r="T58" s="17">
         <f t="shared" si="7"/>
-        <v>6.308442325069592</v>
+        <v>0.63084423250696986</v>
       </c>
       <c r="U58" s="16">
         <f t="shared" si="18"/>
-        <v>0.29961875458374171</v>
+        <v>0.29961875458374598</v>
       </c>
       <c r="Y58" s="1">
         <v>2012</v>
       </c>
       <c r="Z58">
-        <v>106.87942008486563</v>
+        <v>10.687942008486562</v>
       </c>
       <c r="AA58" s="16">
         <f t="shared" si="19"/>
-        <v>116.17787926570554</v>
+        <v>11.617787926570557</v>
       </c>
       <c r="AB58" s="17">
         <f t="shared" si="10"/>
-        <v>-9.2984591808399131</v>
+        <v>-0.92984591808399486</v>
       </c>
       <c r="AC58" s="16">
         <f t="shared" si="20"/>
-        <v>-0.65497875832472607</v>
+        <v>-0.65497875832473262</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5298,55 +5296,55 @@
         <v>2013</v>
       </c>
       <c r="J59">
-        <v>35.685963521015069</v>
+        <v>3.5685963521015069</v>
       </c>
       <c r="K59" s="16">
         <f t="shared" si="15"/>
-        <v>42.731661885585254</v>
+        <v>4.2731661885585481</v>
       </c>
       <c r="L59" s="17">
         <f t="shared" si="4"/>
-        <v>-7.0456983645701854</v>
+        <v>-0.70456983645704119</v>
       </c>
       <c r="M59" s="16">
         <f t="shared" si="16"/>
-        <v>-0.38291971947672804</v>
+        <v>-0.38291971947673481</v>
       </c>
       <c r="Q59" s="1">
         <v>2013</v>
       </c>
       <c r="R59">
-        <v>136.04327521793275</v>
+        <v>13.604327521793275</v>
       </c>
       <c r="S59" s="16">
         <f t="shared" si="17"/>
-        <v>129.74669447289574</v>
+        <v>12.974669447289571</v>
       </c>
       <c r="T59" s="17">
         <f t="shared" si="7"/>
-        <v>6.296580745037005</v>
+        <v>0.6296580745037037</v>
       </c>
       <c r="U59" s="16">
         <f t="shared" si="18"/>
-        <v>0.29905539018194066</v>
+        <v>0.29905539018194144</v>
       </c>
       <c r="Y59" s="1">
         <v>2013</v>
       </c>
       <c r="Z59">
-        <v>115.76337229897273</v>
+        <v>11.576337229897273</v>
       </c>
       <c r="AA59" s="16">
         <f t="shared" si="19"/>
-        <v>116.73750467694344</v>
+        <v>11.673750467694333</v>
       </c>
       <c r="AB59" s="17">
         <f t="shared" si="10"/>
-        <v>-0.97413237797071872</v>
+        <v>-9.7413237797059793E-2</v>
       </c>
       <c r="AC59" s="16">
         <f t="shared" si="20"/>
-        <v>-6.8617391651492929E-2</v>
+        <v>-6.8617391651489001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5372,55 +5370,55 @@
         <v>2014</v>
       </c>
       <c r="J60">
-        <v>19.111816019032513</v>
+        <v>1.9111816019032513</v>
       </c>
       <c r="K60" s="16">
         <f t="shared" si="15"/>
-        <v>41.297055060125786</v>
+        <v>4.1297055060125558</v>
       </c>
       <c r="L60" s="17">
         <f t="shared" si="4"/>
-        <v>-22.185239041093272</v>
+        <v>-2.2185239041093046</v>
       </c>
       <c r="M60" s="16">
         <f t="shared" si="16"/>
-        <v>-1.2057237012668858</v>
+        <v>-1.2057237012668678</v>
       </c>
       <c r="Q60" s="1">
         <v>2014</v>
       </c>
       <c r="R60">
-        <v>69.987554449284374</v>
+        <v>6.9987554449284373</v>
       </c>
       <c r="S60" s="16">
         <f t="shared" si="17"/>
-        <v>130.01923613673767</v>
+        <v>13.001923613673767</v>
       </c>
       <c r="T60" s="17">
         <f t="shared" si="7"/>
-        <v>-60.0316816874533</v>
+        <v>-6.0031681687453302</v>
       </c>
       <c r="U60" s="16">
         <f t="shared" si="18"/>
-        <v>-2.8511979306339881</v>
+        <v>-2.8511979306339903</v>
       </c>
       <c r="Y60" s="1">
         <v>2014</v>
       </c>
       <c r="Z60">
-        <v>100.54886685552408</v>
+        <v>10.054886685552407</v>
       </c>
       <c r="AA60" s="16">
         <f t="shared" si="19"/>
-        <v>117.29713008818112</v>
+        <v>11.729713008818109</v>
       </c>
       <c r="AB60" s="17">
         <f t="shared" si="10"/>
-        <v>-16.748263232657038</v>
+        <v>-1.6748263232657017</v>
       </c>
       <c r="AC60" s="16">
         <f t="shared" si="20"/>
-        <v>-1.1797391850496401</v>
+        <v>-1.1797391850496424</v>
       </c>
     </row>
   </sheetData>
@@ -7474,7 +7472,7 @@
       </c>
       <c r="BY4" s="8">
         <f>SYR!M3</f>
-        <v>0.31498652946578631</v>
+        <v>0.31498652946577105</v>
       </c>
       <c r="BZ4" s="21">
         <v>-1.5186739232344819</v>
@@ -7566,7 +7564,7 @@
       </c>
       <c r="DR4" s="21">
         <f>SYR!U3</f>
-        <v>-0.48547911395952625</v>
+        <v>-0.48547911395952309</v>
       </c>
       <c r="DS4">
         <v>-1.2353917780000001</v>
@@ -7681,27 +7679,27 @@
       </c>
       <c r="GC4" s="18">
         <f>CORREL(DS4:DS61,$DR$4:$DR$61)</f>
-        <v>0.20467487547069271</v>
+        <v>0.20467487547069405</v>
       </c>
       <c r="GD4" s="18">
         <f>CORREL(DV4:DV61,$DR$4:$DR$61)</f>
-        <v>2.0911589831064479E-2</v>
+        <v>2.0911589831061565E-2</v>
       </c>
       <c r="GE4" s="18">
         <f>CORREL(DY4:DY61,$DR$4:$DR$61)</f>
-        <v>-0.26803116760119733</v>
+        <v>-0.26803116760119239</v>
       </c>
       <c r="GF4" s="18">
         <f>CORREL(EB4:EB61,$DR$4:$DR$61)</f>
-        <v>3.8896618599271869E-2</v>
+        <v>3.8896618599275061E-2</v>
       </c>
       <c r="GG4" s="18">
         <f>CORREL(EE4:EE61,$DR$4:$DR$61)</f>
-        <v>-0.19797763145274197</v>
+        <v>-0.19797763145273869</v>
       </c>
       <c r="GH4" s="18">
         <f>CORREL(EH4:EH61,$DR$4:$DR$61)</f>
-        <v>-0.11750368009386798</v>
+        <v>-0.11750368009386622</v>
       </c>
       <c r="GI4" s="18" t="e">
         <f>CORREL(EK4:EK61,$DR$4:$DR$61)</f>
@@ -7717,14 +7715,14 @@
       </c>
       <c r="GL4" s="18">
         <f>CORREL(ET4:ET61,$DR$4:$DR$61)</f>
-        <v>-9.9270298547477431E-2</v>
+        <v>-9.9270298547478264E-2</v>
       </c>
       <c r="GN4" s="20">
         <v>1952</v>
       </c>
       <c r="GO4">
         <f>SYR!AC3</f>
-        <v>1.7849071538238752</v>
+        <v>1.7849071538238677</v>
       </c>
       <c r="GP4">
         <v>-1.1813826109565599</v>
@@ -7839,27 +7837,27 @@
       </c>
       <c r="IZ4" s="18">
         <f>CORREL(GP4:GP61,$GO$4:$GO$61)</f>
-        <v>-2.3728696624885086E-4</v>
+        <v>-2.3728696624725806E-4</v>
       </c>
       <c r="JA4" s="18">
         <f>CORREL(GS4:GS61,$GO$4:$GO$61)</f>
-        <v>7.3490640817862191E-2</v>
+        <v>7.3490640817862676E-2</v>
       </c>
       <c r="JB4" s="18">
         <f>CORREL(GV4:GV61,$GO$4:$GO$61)</f>
-        <v>-8.3888111110567001E-2</v>
+        <v>-8.3888111110569027E-2</v>
       </c>
       <c r="JC4" s="18">
         <f>CORREL(GY4:GY61,$GO$4:$GO$61)</f>
-        <v>8.3601486894124721E-2</v>
+        <v>8.3601486894125235E-2</v>
       </c>
       <c r="JD4" s="18">
         <f>CORREL(HB4:HB61,$GO$4:$GO$61)</f>
-        <v>-7.063629155362168E-2</v>
+        <v>-7.0636291553620445E-2</v>
       </c>
       <c r="JE4" s="18">
         <f>CORREL(HE4:HE61,$GO$4:$GO$61)</f>
-        <v>-9.3220199382489845E-3</v>
+        <v>-9.3220199382479836E-3</v>
       </c>
       <c r="JF4" s="18" t="e">
         <f>CORREL(HH4:HH61,$GO$4:$GO$61)</f>
@@ -7875,7 +7873,7 @@
       </c>
       <c r="JI4" s="18">
         <f>CORREL(HQ4:HQ61,$GO$4:$GO$61)</f>
-        <v>4.04827269424635E-2</v>
+        <v>4.0482726942462709E-2</v>
       </c>
     </row>
     <row r="5" spans="1:271">
@@ -8060,7 +8058,7 @@
       </c>
       <c r="BY5" s="8">
         <f>SYR!M4</f>
-        <v>0.11866620280733473</v>
+        <v>0.11866620280734748</v>
       </c>
       <c r="BZ5" s="21">
         <v>-3.1331937734108131</v>
@@ -8152,7 +8150,7 @@
       </c>
       <c r="DR5" s="21">
         <f>SYR!U4</f>
-        <v>-0.63427887458318266</v>
+        <v>-0.63427887458318066</v>
       </c>
       <c r="DS5">
         <v>-1.2957644639999999</v>
@@ -8285,27 +8283,27 @@
       </c>
       <c r="GC5" s="18">
         <f>CORREL(DT4:DT61,$DR$4:$DR$61)</f>
-        <v>0.27153431883373852</v>
+        <v>0.27153431883373941</v>
       </c>
       <c r="GD5" s="18">
         <f>CORREL(DW4:DW61,$DR$4:$DR$61)</f>
-        <v>0.31681893459349686</v>
+        <v>0.31681893459349481</v>
       </c>
       <c r="GE5" s="18">
         <f>CORREL(DZ4:DZ61,$DR$4:$DR$61)</f>
-        <v>-1.3821219171615872E-2</v>
+        <v>-1.3821219171615001E-2</v>
       </c>
       <c r="GF5" s="18">
         <f>CORREL(EC4:EC61,$DR$4:$DR$61)</f>
-        <v>-0.13172572531803356</v>
+        <v>-0.1317257253180309</v>
       </c>
       <c r="GG5" s="18">
         <f>CORREL(EF4:EF61,$DR$4:$DR$61)</f>
-        <v>-0.23186644030954909</v>
+        <v>-0.23186644030954232</v>
       </c>
       <c r="GH5" s="18">
         <f>CORREL(EI4:EI61,$DR$4:$DR$61)</f>
-        <v>-0.12533232894818749</v>
+        <v>-0.12533232894818391</v>
       </c>
       <c r="GI5" s="18" t="e">
         <f>CORREL(EL4:EL61,$DR$4:$DR$61)</f>
@@ -8321,14 +8319,14 @@
       </c>
       <c r="GL5" s="18">
         <f>CORREL(EU4:EU61,$DR$4:$DR$61)</f>
-        <v>5.8576021463128285E-2</v>
+        <v>5.8576021463127487E-2</v>
       </c>
       <c r="GN5">
         <v>1953</v>
       </c>
       <c r="GO5">
         <f>SYR!AC4</f>
-        <v>1.4972722244452101</v>
+        <v>1.4972722244451968</v>
       </c>
       <c r="GP5">
         <v>-0.97487158212650904</v>
@@ -8461,27 +8459,27 @@
       </c>
       <c r="IZ5" s="18">
         <f>CORREL(GQ4:GQ61,$GO$4:$GO$61)</f>
-        <v>4.3416208222287159E-2</v>
+        <v>4.3416208222286548E-2</v>
       </c>
       <c r="JA5" s="18">
         <f>CORREL(GT4:GT61,$GO$4:$GO$61)</f>
-        <v>0.12606531601014712</v>
+        <v>0.12606531601014734</v>
       </c>
       <c r="JB5" s="18">
         <f>CORREL(GW4:GW61,$GO$4:$GO$61)</f>
-        <v>-4.0460830752952572E-2</v>
+        <v>-4.0460830752952051E-2</v>
       </c>
       <c r="JC5" s="18">
         <f>CORREL(GZ4:GZ61,$GO$4:$GO$61)</f>
-        <v>3.4946808615298072E-2</v>
+        <v>3.4946808615297746E-2</v>
       </c>
       <c r="JD5" s="18">
         <f>CORREL(HC4:HC61,$GO$4:$GO$61)</f>
-        <v>-1.5253170794531057E-2</v>
+        <v>-1.5253170794531307E-2</v>
       </c>
       <c r="JE5" s="18">
         <f>CORREL(HF4:HF61,$GO$4:$GO$61)</f>
-        <v>-5.113887972891488E-3</v>
+        <v>-5.1138879728903682E-3</v>
       </c>
       <c r="JF5" s="18" t="e">
         <f>CORREL(HI4:HI61,$GO$4:$GO$61)</f>
@@ -8497,7 +8495,7 @@
       </c>
       <c r="JI5" s="18">
         <f>CORREL(HR4:HR61,$GO$4:$GO$61)</f>
-        <v>4.6694184833647713E-2</v>
+        <v>4.669418483364618E-2</v>
       </c>
     </row>
     <row r="6" spans="1:271">
@@ -8682,7 +8680,7 @@
       </c>
       <c r="BY6" s="8">
         <f>SYR!M5</f>
-        <v>-0.49223687868145782</v>
+        <v>-0.49223687868143007</v>
       </c>
       <c r="BZ6" s="21">
         <v>0.46785871946639002</v>
@@ -8774,7 +8772,7 @@
       </c>
       <c r="DR6" s="21">
         <f>SYR!U5</f>
-        <v>-0.39217324546138299</v>
+        <v>-0.39217324546136589</v>
       </c>
       <c r="DS6">
         <v>-0.195777917</v>
@@ -8907,27 +8905,27 @@
       </c>
       <c r="GC6" s="18">
         <f>CORREL(DU4:DU61,$DR$4:$DR$61)</f>
-        <v>0.15849451181710289</v>
+        <v>0.15849451181710614</v>
       </c>
       <c r="GD6" s="18">
         <f>CORREL(DX4:DX61,$DR$4:$DR$61)</f>
-        <v>1.108040228086715E-2</v>
+        <v>1.1080402280868245E-2</v>
       </c>
       <c r="GE6" s="18">
         <f>CORREL(EA4:EA61,$DR$4:$DR$61)</f>
-        <v>-3.842505058443333E-2</v>
+        <v>-3.8425050584431138E-2</v>
       </c>
       <c r="GF6" s="18">
         <f>CORREL(ED4:ED61,$DR$4:$DR$61)</f>
-        <v>0.11002964790268081</v>
+        <v>0.11002964790268276</v>
       </c>
       <c r="GG6" s="18">
         <f>CORREL(EG4:EG61,$DR$4:$DR$61)</f>
-        <v>9.7262313291930441E-2</v>
+        <v>9.7262313291933578E-2</v>
       </c>
       <c r="GH6" s="18">
         <f>CORREL(EJ4:EJ61,$DR$4:$DR$61)</f>
-        <v>-0.11759302146622497</v>
+        <v>-0.1175930214662214</v>
       </c>
       <c r="GI6" s="18" t="e">
         <f>CORREL(EM4:EM61,$DR$4:$DR$61)</f>
@@ -8943,14 +8941,14 @@
       </c>
       <c r="GL6" s="18">
         <f>CORREL(EV4:EV61,$DR$4:$DR$61)</f>
-        <v>-2.0407964651974572E-2</v>
+        <v>-2.0407964651974069E-2</v>
       </c>
       <c r="GN6">
         <v>1954</v>
       </c>
       <c r="GO6">
         <f>SYR!AC5</f>
-        <v>0.33836926038390019</v>
+        <v>0.33836926038388454</v>
       </c>
       <c r="GP6">
         <v>-0.468313922181467</v>
@@ -9083,27 +9081,27 @@
       </c>
       <c r="IZ6" s="18">
         <f>CORREL(GR4:GR61,$GO$4:$GO$61)</f>
-        <v>8.5363840386209047E-2</v>
+        <v>8.5363840386207701E-2</v>
       </c>
       <c r="JA6" s="18">
         <f>CORREL(GU4:GU61,$GO$4:$GO$61)</f>
-        <v>6.4490950041294084E-2</v>
+        <v>6.4490950041292697E-2</v>
       </c>
       <c r="JB6" s="18">
         <f>CORREL(GX4:GX61,$GO$4:$GO$61)</f>
-        <v>6.6026691062690768E-2</v>
+        <v>6.6026691062689019E-2</v>
       </c>
       <c r="JC6" s="18">
         <f>CORREL(HA4:HA61,$GO$4:$GO$61)</f>
-        <v>5.1026273969941943E-2</v>
+        <v>5.102627396994136E-2</v>
       </c>
       <c r="JD6" s="18">
         <f>CORREL(HD4:HD61,$GO$4:$GO$61)</f>
-        <v>0.11862093459192169</v>
+        <v>0.11862093459192145</v>
       </c>
       <c r="JE6" s="18">
         <f>CORREL(HG4:HG61,$GO$4:$GO$61)</f>
-        <v>-1.4443205172130094E-3</v>
+        <v>-1.444320517212062E-3</v>
       </c>
       <c r="JF6" s="18" t="e">
         <f>CORREL(HJ4:HJ61,$GO$4:$GO$61)</f>
@@ -9119,7 +9117,7 @@
       </c>
       <c r="JI6" s="18">
         <f>CORREL(HS4:HS61,$GO$4:$GO$61)</f>
-        <v>4.3011177679474896E-3</v>
+        <v>4.3011177679464904E-3</v>
       </c>
     </row>
     <row r="7" spans="1:271">
@@ -9304,7 +9302,7 @@
       </c>
       <c r="BY7" s="8">
         <f>SYR!M6</f>
-        <v>0.50874654561225896</v>
+        <v>0.50874654561224331</v>
       </c>
       <c r="BZ7" s="21">
         <v>0.71536469668257718</v>
@@ -9383,27 +9381,27 @@
       </c>
       <c r="DF7" s="18">
         <f>CORREL(BZ4:BZ61,$BY$4:$BY$61)</f>
-        <v>-3.3635728894427563E-2</v>
+        <v>-3.3635728894426752E-2</v>
       </c>
       <c r="DG7" s="18">
         <f>CORREL(CC4:CC61,$BY$4:$BY$61)</f>
-        <v>0.43795770567188375</v>
+        <v>0.43795770567188452</v>
       </c>
       <c r="DH7" s="18">
         <f>CORREL(CF4:CF61,$BY$4:$BY$61)</f>
-        <v>-4.0534844541000439E-2</v>
+        <v>-4.0534844541001105E-2</v>
       </c>
       <c r="DI7" s="18">
         <f>CORREL(CI4:CI61,$BY$4:$BY$61)</f>
-        <v>-0.20382747453868644</v>
+        <v>-0.20382747453868294</v>
       </c>
       <c r="DJ7" s="18">
         <f>CORREL(CL4:CL61,$BY$4:$BY$61)</f>
-        <v>-8.7080588985163493E-2</v>
+        <v>-8.7080588985166532E-2</v>
       </c>
       <c r="DK7" s="18">
         <f>CORREL(CO4:CO61,$BY$4:$BY$61)</f>
-        <v>3.1095542475787233E-2</v>
+        <v>3.10955424757898E-2</v>
       </c>
       <c r="DL7" s="18" t="e">
         <f>CORREL(CR4:CR61,$BY$4:$BY$61)</f>
@@ -9419,14 +9417,14 @@
       </c>
       <c r="DO7" s="18">
         <f>CORREL(DA4:DA61,$BY$4:$BY$61)</f>
-        <v>-7.0563813925827987E-2</v>
+        <v>-7.0563813925831304E-2</v>
       </c>
       <c r="DQ7">
         <v>1955</v>
       </c>
       <c r="DR7" s="21">
         <f>SYR!U6</f>
-        <v>0.56156626155233857</v>
+        <v>0.56156626155230993</v>
       </c>
       <c r="DS7">
         <v>0.56167975299999995</v>
@@ -9559,27 +9557,27 @@
       </c>
       <c r="GC7" s="18">
         <f>CORREL(EW4:EW61,$DR$4:$DR$61)</f>
-        <v>0.16149041049267121</v>
+        <v>0.16149041049267254</v>
       </c>
       <c r="GD7" s="18">
         <f>CORREL(EZ4:EZ61,$DR$4:$DR$61)</f>
-        <v>1.0195256336897638E-2</v>
+        <v>1.0195256336894552E-2</v>
       </c>
       <c r="GE7" s="18">
         <f>CORREL(FC4:FC61,$DR$4:$DR$61)</f>
-        <v>-0.31244100390220003</v>
+        <v>-0.31244100390219537</v>
       </c>
       <c r="GF7" s="18">
         <f>CORREL(FF4:FF61,$DR$4:$DR$61)</f>
-        <v>4.9411803923227193E-2</v>
+        <v>4.9411803923230531E-2</v>
       </c>
       <c r="GG7" s="18">
         <f>CORREL(FI4:FI61,$DR$4:$DR$61)</f>
-        <v>-0.1627396435250833</v>
+        <v>-0.1627396435250808</v>
       </c>
       <c r="GH7" s="18">
         <f>CORREL(FL4:FL61,$DR$4:$DR$61)</f>
-        <v>-0.10182671916672956</v>
+        <v>-0.10182671916672842</v>
       </c>
       <c r="GI7" s="18" t="e">
         <f>CORREL(FO4:FO61,$DR$4:$DR$61)</f>
@@ -9595,14 +9593,14 @@
       </c>
       <c r="GL7" s="18">
         <f>CORREL(FX4:FX61,$DR$4:$DR$61)</f>
-        <v>-0.1079792877094535</v>
+        <v>-0.10797928770945453</v>
       </c>
       <c r="GN7">
         <v>1955</v>
       </c>
       <c r="GO7">
         <f>SYR!AC6</f>
-        <v>-1.4291059513332718</v>
+        <v>-1.4291059513332884</v>
       </c>
       <c r="GP7">
         <v>0.93272202201584398</v>
@@ -9735,27 +9733,27 @@
       </c>
       <c r="IZ7" s="18">
         <f>CORREL(HT4:HT61,$GO$4:$GO$61)</f>
-        <v>-4.2246238291455554E-3</v>
+        <v>-4.224623829143642E-3</v>
       </c>
       <c r="JA7" s="18">
         <f>CORREL(HW4:HW61,$GO$4:$GO$61)</f>
-        <v>8.6021070099448316E-2</v>
+        <v>8.6021070099448982E-2</v>
       </c>
       <c r="JB7" s="18">
         <f>CORREL(HZ4:HZ61,$GO$4:$GO$61)</f>
-        <v>-0.11712430010932068</v>
+        <v>-0.11712430010932263</v>
       </c>
       <c r="JC7" s="18">
         <f>CORREL(IC4:IC61,$GO$4:$GO$61)</f>
-        <v>9.889749972827401E-2</v>
+        <v>9.8897499728274191E-2</v>
       </c>
       <c r="JD7" s="18">
         <f>CORREL(IF4:IF61,$GO$4:$GO$61)</f>
-        <v>-1.8513290538243875E-2</v>
+        <v>-1.8513290538242379E-2</v>
       </c>
       <c r="JE7" s="18">
         <f>CORREL(II4:II61,$GO$4:$GO$61)</f>
-        <v>-1.5471183168175327E-2</v>
+        <v>-1.5471183168173816E-2</v>
       </c>
       <c r="JF7" s="18" t="e">
         <f>CORREL(IL4:IL61,$GO$4:$GO$61)</f>
@@ -9771,7 +9769,7 @@
       </c>
       <c r="JI7" s="18">
         <f>CORREL(IU4:IU61,$GO$4:$GO$61)</f>
-        <v>2.200911665256847E-2</v>
+        <v>2.2009116652567894E-2</v>
       </c>
     </row>
     <row r="8" spans="1:271">
@@ -9956,7 +9954,7 @@
       </c>
       <c r="BY8" s="8">
         <f>SYR!M7</f>
-        <v>0.66294812898105093</v>
+        <v>0.66294812898106359</v>
       </c>
       <c r="BZ8" s="21">
         <v>0.44986355818858015</v>
@@ -10035,27 +10033,27 @@
       </c>
       <c r="DF8" s="18">
         <f>CORREL(CA4:CA61,$BY$4:$BY$61)</f>
-        <v>-3.3869488598239392E-2</v>
+        <v>-3.386948859823969E-2</v>
       </c>
       <c r="DG8" s="18">
         <f>CORREL(CD4:CD61,$BY$4:$BY$61)</f>
-        <v>0.18460131559022974</v>
+        <v>0.18460131559023099</v>
       </c>
       <c r="DH8" s="18">
         <f>CORREL(CG4:CG61,$BY$4:$BY$61)</f>
-        <v>0.24908416386457685</v>
+        <v>0.2490841638645783</v>
       </c>
       <c r="DI8" s="18">
         <f>CORREL(CJ4:CJ61,$BY$4:$BY$61)</f>
-        <v>0.15658711890764246</v>
+        <v>0.15658711890764407</v>
       </c>
       <c r="DJ8" s="18">
         <f>CORREL(CM4:CM61,$BY$4:$BY$61)</f>
-        <v>-0.21424732106121902</v>
+        <v>-0.21424732106121924</v>
       </c>
       <c r="DK8" s="18">
         <f>CORREL(CP4:CP61,$BY$4:$BY$61)</f>
-        <v>-0.16790774494029323</v>
+        <v>-0.16790774494029215</v>
       </c>
       <c r="DL8" s="18" t="e">
         <f>CORREL(CS4:CS61,$BY$4:$BY$61)</f>
@@ -10071,14 +10069,14 @@
       </c>
       <c r="DO8" s="18">
         <f>CORREL(DB4:DB61,$BY$4:$BY$61)</f>
-        <v>8.5840198658283462E-2</v>
+        <v>8.5840198658282685E-2</v>
       </c>
       <c r="DQ8">
         <v>1956</v>
       </c>
       <c r="DR8" s="21">
         <f>SYR!U7</f>
-        <v>2.8811313792190987</v>
+        <v>2.8811313792191013</v>
       </c>
       <c r="DS8">
         <v>0.60605262599999998</v>
@@ -10211,27 +10209,27 @@
       </c>
       <c r="GC8" s="18">
         <f>CORREL(EX4:EX61,$DR$4:$DR$61)</f>
-        <v>0.27198461831838733</v>
+        <v>0.27198461831838777</v>
       </c>
       <c r="GD8" s="18">
         <f>CORREL(FA4:FA61,$DR$4:$DR$61)</f>
-        <v>0.31429993855064386</v>
+        <v>0.31429993855064187</v>
       </c>
       <c r="GE8" s="18">
         <f>CORREL(FD4:FD61,$DR$4:$DR$61)</f>
-        <v>-2.6637259335898129E-2</v>
+        <v>-2.6637259335897626E-2</v>
       </c>
       <c r="GF8" s="18">
         <f>CORREL(FG4:FG61,$DR$4:$DR$61)</f>
-        <v>-0.1361269203904539</v>
+        <v>-0.13612692039045118</v>
       </c>
       <c r="GG8" s="18">
         <f>CORREL(FJ4:FJ61,$DR$4:$DR$61)</f>
-        <v>-0.23292068768687946</v>
+        <v>-0.23292068768687263</v>
       </c>
       <c r="GH8" s="18">
         <f>CORREL(FM4:FM61,$DR$4:$DR$61)</f>
-        <v>-9.5566795457168355E-2</v>
+        <v>-9.5566795457164844E-2</v>
       </c>
       <c r="GI8" s="18" t="e">
         <f>CORREL(FP4:FP61,$DR$4:$DR$61)</f>
@@ -10247,14 +10245,14 @@
       </c>
       <c r="GL8" s="18">
         <f>CORREL(FY4:FY61,$DR$4:$DR$61)</f>
-        <v>4.7427435839570695E-2</v>
+        <v>4.7427435839570015E-2</v>
       </c>
       <c r="GN8">
         <v>1956</v>
       </c>
       <c r="GO8">
         <f>SYR!AC7</f>
-        <v>2.5332762516445353</v>
+        <v>2.5332762516445504</v>
       </c>
       <c r="GP8">
         <v>0.50302013818954905</v>
@@ -10387,27 +10385,27 @@
       </c>
       <c r="IZ8" s="18">
         <f>CORREL(HU4:HU61,$GO$4:$GO$61)</f>
-        <v>3.0878656828431369E-2</v>
+        <v>3.0878656828430738E-2</v>
       </c>
       <c r="JA8" s="18">
         <f>CORREL(HX4:HX61,$GO$4:$GO$61)</f>
-        <v>0.12892622598998935</v>
+        <v>0.12892622598998979</v>
       </c>
       <c r="JB8" s="18">
         <f>CORREL(IA4:IA61,$GO$4:$GO$61)</f>
-        <v>-4.1888148382253305E-2</v>
+        <v>-4.188814838225266E-2</v>
       </c>
       <c r="JC8" s="18">
         <f>CORREL(ID4:ID61,$GO$4:$GO$61)</f>
-        <v>3.9733761414824417E-2</v>
+        <v>3.9733761414823911E-2</v>
       </c>
       <c r="JD8" s="18">
         <f>CORREL(IG4:IG61,$GO$4:$GO$61)</f>
-        <v>1.4439313635813628E-2</v>
+        <v>1.4439313635813199E-2</v>
       </c>
       <c r="JE8" s="18">
         <f>CORREL(IJ4:IJ61,$GO$4:$GO$61)</f>
-        <v>3.5024348258285182E-2</v>
+        <v>3.5024348258286479E-2</v>
       </c>
       <c r="JF8" s="18" t="e">
         <f>CORREL(IM4:IM61,$GO$4:$GO$61)</f>
@@ -10423,7 +10421,7 @@
       </c>
       <c r="JI8" s="18">
         <f>CORREL(IV4:IV61,$GO$4:$GO$61)</f>
-        <v>-7.7737057079740775E-3</v>
+        <v>-7.7737057079756934E-3</v>
       </c>
     </row>
     <row r="9" spans="1:271">
@@ -10608,7 +10606,7 @@
       </c>
       <c r="BY9" s="8">
         <f>SYR!M8</f>
-        <v>-1.6667189549373189</v>
+        <v>-1.6667189549373465</v>
       </c>
       <c r="BZ9" s="21">
         <v>-0.19564285120184899</v>
@@ -10687,27 +10685,27 @@
       </c>
       <c r="DF9" s="18">
         <f>CORREL(CB4:CB61,$BY$4:$BY$61)</f>
-        <v>-0.2240329622107326</v>
+        <v>-0.22403296221073229</v>
       </c>
       <c r="DG9" s="18">
         <f>CORREL(CE4:CE61,$BY$4:$BY$61)</f>
-        <v>-4.33933310020332E-2</v>
+        <v>-4.3393331002034137E-2</v>
       </c>
       <c r="DH9" s="18">
         <f>CORREL(CH4:CH61,$BY$4:$BY$61)</f>
-        <v>0.12010650900160222</v>
+        <v>0.12010650900160261</v>
       </c>
       <c r="DI9" s="18">
         <f>CORREL(CK4:CK61,$BY$4:$BY$61)</f>
-        <v>6.7684598145889216E-2</v>
+        <v>6.7684598145889938E-2</v>
       </c>
       <c r="DJ9" s="18">
         <f>CORREL(CN4:CN61,$BY$4:$BY$61)</f>
-        <v>5.7594021270280633E-2</v>
+        <v>5.7594021270281473E-2</v>
       </c>
       <c r="DK9" s="18">
         <f>CORREL(CQ4:CQ61,$BY$4:$BY$61)</f>
-        <v>8.5541540659328841E-2</v>
+        <v>8.5541540659330492E-2</v>
       </c>
       <c r="DL9" s="18" t="e">
         <f>CORREL(CT4:CT61,$BY$4:$BY$61)</f>
@@ -10723,14 +10721,14 @@
       </c>
       <c r="DO9" s="18">
         <f>CORREL(DC4:DC61,$BY$4:$BY$61)</f>
-        <v>0.18773251994869922</v>
+        <v>0.18773251994869872</v>
       </c>
       <c r="DQ9">
         <v>1957</v>
       </c>
       <c r="DR9" s="21">
         <f>SYR!U8</f>
-        <v>-1.4663324005557692</v>
+        <v>-1.4663324005557337</v>
       </c>
       <c r="DS9">
         <v>0.52948711900000001</v>
@@ -10863,27 +10861,27 @@
       </c>
       <c r="GC9" s="18">
         <f>CORREL(EY4:EY61,$DR$4:$DR$61)</f>
-        <v>0.12167969819061508</v>
+        <v>0.12167969819061811</v>
       </c>
       <c r="GD9" s="18">
         <f>CORREL(FB4:FB61,$DR$4:$DR$61)</f>
-        <v>-4.2276315300427457E-3</v>
+        <v>-4.2276315300417778E-3</v>
       </c>
       <c r="GE9" s="18">
         <f>CORREL(FE4:FE61,$DR$4:$DR$61)</f>
-        <v>-7.2619114407274643E-3</v>
+        <v>-7.2619114407257851E-3</v>
       </c>
       <c r="GF9" s="18">
         <f>CORREL(FH4:FH61,$DR$4:$DR$61)</f>
-        <v>0.12633539568008323</v>
+        <v>0.12633539568008509</v>
       </c>
       <c r="GG9" s="18">
         <f>CORREL(FK4:FK61,$DR$4:$DR$61)</f>
-        <v>0.1144925744658013</v>
+        <v>0.11449257446580424</v>
       </c>
       <c r="GH9" s="18">
         <f>CORREL(FN4:FN61,$DR$4:$DR$61)</f>
-        <v>-0.10068189183232502</v>
+        <v>-0.10068189183232193</v>
       </c>
       <c r="GI9" s="18" t="e">
         <f>CORREL(FQ4:FQ61,$DR$4:$DR$61)</f>
@@ -10899,14 +10897,14 @@
       </c>
       <c r="GL9" s="18">
         <f>CORREL(FZ4:FZ61,$DR$4:$DR$61)</f>
-        <v>4.0390958687990496E-2</v>
+        <v>4.0390958687990072E-2</v>
       </c>
       <c r="GN9">
         <v>1957</v>
       </c>
       <c r="GO9">
         <f>SYR!AC8</f>
-        <v>-1.2643980940321424</v>
+        <v>-1.2643980940321218</v>
       </c>
       <c r="GP9">
         <v>0.57793515067139301</v>
@@ -11039,19 +11037,19 @@
       </c>
       <c r="IZ9" s="18">
         <f>CORREL(HV4:HV61,$GO$4:$GO$61)</f>
-        <v>6.8615579883744268E-2</v>
+        <v>6.8615579883742672E-2</v>
       </c>
       <c r="JA9" s="18">
         <f>CORREL(HY4:HY61,$GO$4:$GO$61)</f>
-        <v>4.9669963721910529E-2</v>
+        <v>4.9669963721908995E-2</v>
       </c>
       <c r="JB9" s="18">
         <f>CORREL(IB4:IB61,$GO$4:$GO$61)</f>
-        <v>4.5777487288146991E-2</v>
+        <v>4.5777487288145312E-2</v>
       </c>
       <c r="JC9" s="18">
         <f>CORREL(IE4:IE61,$GO$4:$GO$61)</f>
-        <v>3.8812133439958062E-2</v>
+        <v>3.88121334399575E-2</v>
       </c>
       <c r="JD9" s="18">
         <f>CORREL(IH4:IH61,$GO$4:$GO$61)</f>
@@ -11059,7 +11057,7 @@
       </c>
       <c r="JE9" s="18">
         <f>CORREL(IK4:IK61,$GO$4:$GO$61)</f>
-        <v>4.0381765253838008E-3</v>
+        <v>4.0381765253849978E-3</v>
       </c>
       <c r="JF9" s="18" t="e">
         <f>CORREL(IN4:IN61,$GO$4:$GO$61)</f>
@@ -11075,7 +11073,7 @@
       </c>
       <c r="JI9" s="18">
         <f>CORREL(IW4:IW61,$GO$4:$GO$61)</f>
-        <v>1.4159746999466904E-2</v>
+        <v>1.4159746999465808E-2</v>
       </c>
       <c r="JJ9" s="7"/>
       <c r="JK9" s="7"/>
@@ -11219,7 +11217,7 @@
       </c>
       <c r="BY10" s="8">
         <f>SYR!M9</f>
-        <v>2.892537069790627</v>
+        <v>2.8925370697906092</v>
       </c>
       <c r="BZ10" s="21">
         <v>1.2583798611105113</v>
@@ -11298,7 +11296,7 @@
       </c>
       <c r="DR10" s="21">
         <f>SYR!U9</f>
-        <v>0.37153396196935451</v>
+        <v>0.37153396196935118</v>
       </c>
       <c r="DS10">
         <v>2.0280488019999998</v>
@@ -11431,7 +11429,7 @@
       </c>
       <c r="GO10">
         <f>SYR!AC9</f>
-        <v>0.21058953702771066</v>
+        <v>0.21058953702772029</v>
       </c>
       <c r="GP10">
         <v>1.8954587864775501</v>
@@ -11710,7 +11708,7 @@
       </c>
       <c r="BY11" s="8">
         <f>SYR!M10</f>
-        <v>0.13239643352506372</v>
+        <v>0.13239643352507649</v>
       </c>
       <c r="BZ11" s="21">
         <v>-4.6351134866207547E-3</v>
@@ -11789,7 +11787,7 @@
       </c>
       <c r="DR11" s="21">
         <f>SYR!U10</f>
-        <v>1.1640492558036513</v>
+        <v>1.1640492558036672</v>
       </c>
       <c r="DS11">
         <v>1.2197953479999999</v>
@@ -11922,7 +11920,7 @@
       </c>
       <c r="GO11">
         <f>SYR!AC10</f>
-        <v>0.74459340919030403</v>
+        <v>0.74459340919030526</v>
       </c>
       <c r="GP11">
         <v>1.3720112002292599</v>
@@ -12201,7 +12199,7 @@
       </c>
       <c r="BY12" s="8">
         <f>SYR!M11</f>
-        <v>-0.69470954468596069</v>
+        <v>-0.69470954468598867</v>
       </c>
       <c r="BZ12" s="21">
         <v>1.8578932650394044</v>
@@ -12280,7 +12278,7 @@
       </c>
       <c r="DR12" s="21">
         <f>SYR!U11</f>
-        <v>-0.3660581456801591</v>
+        <v>-0.36605814568015504</v>
       </c>
       <c r="DS12">
         <v>1.243116278</v>
@@ -12413,7 +12411,7 @@
       </c>
       <c r="GO12">
         <f>SYR!AC11</f>
-        <v>-0.47924949259609861</v>
+        <v>-0.47924949259613109</v>
       </c>
       <c r="GP12">
         <v>1.02648845266386</v>
@@ -12692,7 +12690,7 @@
       </c>
       <c r="BY13" s="8">
         <f>SYR!M12</f>
-        <v>-0.5737539581530734</v>
+        <v>-0.57375395815307384</v>
       </c>
       <c r="BZ13" s="21">
         <v>-0.93464292491586831</v>
@@ -12771,7 +12769,7 @@
       </c>
       <c r="DR13" s="21">
         <f>SYR!U12</f>
-        <v>-1.0400574659470212</v>
+        <v>-1.0400574659470092</v>
       </c>
       <c r="DS13">
         <v>-0.46830805199999997</v>
@@ -12904,7 +12902,7 @@
       </c>
       <c r="GO13">
         <f>SYR!AC12</f>
-        <v>-0.59061852574358775</v>
+        <v>-0.59061852574357543</v>
       </c>
       <c r="GP13">
         <v>-1.17070693026776</v>
@@ -13183,7 +13181,7 @@
       </c>
       <c r="BY14" s="8">
         <f>SYR!M13</f>
-        <v>-0.1919652078364133</v>
+        <v>-0.19196520783640023</v>
       </c>
       <c r="BZ14" s="21">
         <v>1.1653887479204272</v>
@@ -13262,7 +13260,7 @@
       </c>
       <c r="DR14" s="21">
         <f>SYR!U13</f>
-        <v>-1.0359269601349639</v>
+        <v>-1.0359269601350054</v>
       </c>
       <c r="DS14">
         <v>1.044769737</v>
@@ -13395,7 +13393,7 @@
       </c>
       <c r="GO14">
         <f>SYR!AC13</f>
-        <v>-0.48138396620355678</v>
+        <v>-0.48138396620355145</v>
       </c>
       <c r="GP14">
         <v>1.2463721731426001</v>
@@ -13674,7 +13672,7 @@
       </c>
       <c r="BY15" s="8">
         <f>SYR!M14</f>
-        <v>5.1536945343093249E-2</v>
+        <v>5.1536945343064203E-2</v>
       </c>
       <c r="BZ15" s="21">
         <v>-0.6486338694765319</v>
@@ -13761,7 +13759,7 @@
       </c>
       <c r="DR15" s="21">
         <f>SYR!U14</f>
-        <v>0.8131017146436097</v>
+        <v>0.81310171464359637</v>
       </c>
       <c r="DS15">
         <v>-0.63773061600000003</v>
@@ -13894,7 +13892,7 @@
       </c>
       <c r="GO15">
         <f>SYR!AC14</f>
-        <v>-0.29305617831299352</v>
+        <v>-0.29305617831299446</v>
       </c>
       <c r="GP15">
         <v>-0.45908710047356999</v>
@@ -14260,7 +14258,7 @@
       </c>
       <c r="DR16" s="21">
         <f>SYR!U15</f>
-        <v>0.46641176567320541</v>
+        <v>0.46641176567325637</v>
       </c>
       <c r="DS16">
         <v>-5.2381868999999998E-2</v>
@@ -14393,7 +14391,7 @@
       </c>
       <c r="GO16">
         <f>SYR!AC15</f>
-        <v>-0.47668032915196251</v>
+        <v>-0.47668032915196973</v>
       </c>
       <c r="GP16">
         <v>0.51638819778754697</v>
@@ -14661,7 +14659,7 @@
       </c>
       <c r="BY17" s="8">
         <f>SYR!M16</f>
-        <v>6.0029591243682817E-2</v>
+        <v>6.0029591243695855E-2</v>
       </c>
       <c r="BZ17" s="21">
         <v>0.38788559598325845</v>
@@ -14748,7 +14746,7 @@
       </c>
       <c r="DR17" s="21">
         <f>SYR!U16</f>
-        <v>-0.27029624781870498</v>
+        <v>-0.27029624781871392</v>
       </c>
       <c r="DS17">
         <v>-1.23427748</v>
@@ -14881,7 +14879,7 @@
       </c>
       <c r="GO17">
         <f>SYR!AC16</f>
-        <v>-0.63861015697848855</v>
+        <v>-0.63861015697850154</v>
       </c>
       <c r="GP17">
         <v>-1.29332531032492</v>
@@ -15160,7 +15158,7 @@
       </c>
       <c r="BY18" s="8">
         <f>SYR!M17</f>
-        <v>0.43643993393985747</v>
+        <v>0.43643993393989799</v>
       </c>
       <c r="BZ18" s="21">
         <v>-0.24812068163476</v>
@@ -15239,7 +15237,7 @@
       </c>
       <c r="DR18" s="21">
         <f>SYR!U17</f>
-        <v>-0.43349572608471526</v>
+        <v>-0.4334957260847121</v>
       </c>
       <c r="DS18">
         <v>0.88776309600000003</v>
@@ -15382,7 +15380,7 @@
       </c>
       <c r="GO18">
         <f>SYR!AC17</f>
-        <v>-0.57421608967661264</v>
+        <v>-0.57421608967658211</v>
       </c>
       <c r="GP18">
         <v>0.76719231689624601</v>
@@ -15669,7 +15667,7 @@
       </c>
       <c r="BY19" s="8">
         <f>SYR!M18</f>
-        <v>-1.678635846571602</v>
+        <v>-1.6786358465716014</v>
       </c>
       <c r="BZ19" s="21">
         <v>-0.40912037063223772</v>
@@ -15748,7 +15746,7 @@
       </c>
       <c r="DR19" s="21">
         <f>SYR!U18</f>
-        <v>-0.38987628647038547</v>
+        <v>-0.38987628647043515</v>
       </c>
       <c r="DS19">
         <v>-0.32095253299999998</v>
@@ -15891,7 +15889,7 @@
       </c>
       <c r="GO19">
         <f>SYR!AC18</f>
-        <v>-1.4811286356763889</v>
+        <v>-1.4811286356763613</v>
       </c>
       <c r="GP19">
         <v>-1.0819481406545099</v>
@@ -16178,7 +16176,7 @@
       </c>
       <c r="BY20" s="8">
         <f>SYR!M19</f>
-        <v>-0.37308980068879027</v>
+        <v>-0.37308980068883302</v>
       </c>
       <c r="BZ20" s="21">
         <v>-0.68412164089864524</v>
@@ -16257,7 +16255,7 @@
       </c>
       <c r="DR20" s="21">
         <f>SYR!U19</f>
-        <v>-1.5231287225076626</v>
+        <v>-1.5231287225076537</v>
       </c>
       <c r="DS20">
         <v>-1.1957940920000001</v>
@@ -16400,7 +16398,7 @@
       </c>
       <c r="GO20">
         <f>SYR!AC19</f>
-        <v>-1.2224006162791115</v>
+        <v>-1.2224006162791221</v>
       </c>
       <c r="GP20">
         <v>-1.37824632205507</v>
@@ -16687,7 +16685,7 @@
       </c>
       <c r="BY21" s="8">
         <f>SYR!M20</f>
-        <v>-0.14984053985636989</v>
+        <v>-0.14984053985632878</v>
       </c>
       <c r="BZ21" s="21">
         <v>1.2924083188963096</v>
@@ -16766,7 +16764,7 @@
       </c>
       <c r="DR21" s="21">
         <f>SYR!U20</f>
-        <v>-0.72992754121343673</v>
+        <v>-0.72992754121340919</v>
       </c>
       <c r="DS21">
         <v>1.8773190639999999</v>
@@ -16909,7 +16907,7 @@
       </c>
       <c r="GO21">
         <f>SYR!AC20</f>
-        <v>-0.62483108903391194</v>
+        <v>-0.62483108903393125</v>
       </c>
       <c r="GP21">
         <v>1.63086930324876</v>
@@ -17196,7 +17194,7 @@
       </c>
       <c r="BY22" s="8">
         <f>SYR!M21</f>
-        <v>-1.4224737273011521</v>
+        <v>-1.4224737273011518</v>
       </c>
       <c r="BZ22" s="21">
         <v>1.2454102111677616</v>
@@ -17275,7 +17273,7 @@
       </c>
       <c r="DR22" s="21">
         <f>SYR!U21</f>
-        <v>1.7875089279624434</v>
+        <v>1.7875089279624379</v>
       </c>
       <c r="DS22">
         <v>-0.41139140000000002</v>
@@ -17418,7 +17416,7 @@
       </c>
       <c r="GO22">
         <f>SYR!AC21</f>
-        <v>-0.57578743734046178</v>
+        <v>-0.57578743734048732</v>
       </c>
       <c r="GP22">
         <v>-0.65911902320907001</v>
@@ -17705,7 +17703,7 @@
       </c>
       <c r="BY23" s="8">
         <f>SYR!M22</f>
-        <v>0.97830594859866948</v>
+        <v>0.97830594859862541</v>
       </c>
       <c r="BZ23" s="21">
         <v>7.7396554294737741E-2</v>
@@ -17784,7 +17782,7 @@
       </c>
       <c r="DR23" s="21">
         <f>SYR!U22</f>
-        <v>0.57545584836924257</v>
+        <v>0.57545584836924091</v>
       </c>
       <c r="DS23">
         <v>0.739737164</v>
@@ -17927,7 +17925,7 @@
       </c>
       <c r="GO23">
         <f>SYR!AC22</f>
-        <v>-1.8301523398625497E-2</v>
+        <v>-1.8301523398609274E-2</v>
       </c>
       <c r="GP23">
         <v>0.99350184157300003</v>
@@ -18213,7 +18211,7 @@
       </c>
       <c r="BY24" s="8">
         <f>SYR!M23</f>
-        <v>-4.5706982531316727E-2</v>
+        <v>-4.570698253133143E-2</v>
       </c>
       <c r="BZ24" s="21">
         <v>-0.43510801028194013</v>
@@ -18292,7 +18290,7 @@
       </c>
       <c r="DR24" s="21">
         <f>SYR!U23</f>
-        <v>-0.75008419817413807</v>
+        <v>-0.7500841981741504</v>
       </c>
       <c r="DS24">
         <v>-0.251514654</v>
@@ -18425,7 +18423,7 @@
       </c>
       <c r="GO24">
         <f>SYR!AC23</f>
-        <v>-1.2033353992678613</v>
+        <v>-1.2033353992678473</v>
       </c>
       <c r="GP24">
         <v>-0.19310174991485701</v>
@@ -18703,7 +18701,7 @@
       </c>
       <c r="BY25" s="8">
         <f>SYR!M24</f>
-        <v>1.3974846454273344</v>
+        <v>1.3974846454273324</v>
       </c>
       <c r="BZ25" s="21">
         <v>-0.3396041414243261</v>
@@ -18782,7 +18780,7 @@
       </c>
       <c r="DR25" s="21">
         <f>SYR!U24</f>
-        <v>1.3805525480278764</v>
+        <v>1.380552548027894</v>
       </c>
       <c r="DS25">
         <v>1.76963235</v>
@@ -18915,7 +18913,7 @@
       </c>
       <c r="GO25">
         <f>SYR!AC24</f>
-        <v>-0.34043727587064815</v>
+        <v>-0.34043727587064287</v>
       </c>
       <c r="GP25">
         <v>1.53872303231617</v>
@@ -19193,7 +19191,7 @@
       </c>
       <c r="BY26" s="8">
         <f>SYR!M25</f>
-        <v>1.1858094019233165</v>
+        <v>1.1858094019233432</v>
       </c>
       <c r="BZ26" s="21">
         <v>-0.60510527991832308</v>
@@ -19272,7 +19270,7 @@
       </c>
       <c r="DR26" s="21">
         <f>SYR!U25</f>
-        <v>1.152465848734179</v>
+        <v>1.1524658487341413</v>
       </c>
       <c r="DS26">
         <v>-0.99233344400000001</v>
@@ -19405,7 +19403,7 @@
       </c>
       <c r="GO26">
         <f>SYR!AC25</f>
-        <v>-0.45886295469093491</v>
+        <v>-0.45886295469093547</v>
       </c>
       <c r="GP26">
         <v>-0.67775507540063595</v>
@@ -19683,7 +19681,7 @@
       </c>
       <c r="BY27" s="8">
         <f>SYR!M26</f>
-        <v>0.55827995904160643</v>
+        <v>0.55827995904159089</v>
       </c>
       <c r="BZ27" s="21">
         <v>-0.15809653548150873</v>
@@ -19762,7 +19760,7 @@
       </c>
       <c r="DR27" s="21">
         <f>SYR!U26</f>
-        <v>3.5809196115808628E-2</v>
+        <v>3.5809196115829132E-2</v>
       </c>
       <c r="DS27">
         <v>-1.3910421740000001</v>
@@ -19895,7 +19893,7 @@
       </c>
       <c r="GO27">
         <f>SYR!AC26</f>
-        <v>-0.39015433285906986</v>
+        <v>-0.39015433285907697</v>
       </c>
       <c r="GP27">
         <v>-1.1448371385874401</v>
@@ -20163,7 +20161,7 @@
       </c>
       <c r="BY28" s="8">
         <f>SYR!M27</f>
-        <v>-0.47610143378224579</v>
+        <v>-0.47610143378224629</v>
       </c>
       <c r="BZ28" s="21">
         <v>0.25091168186566215</v>
@@ -20242,7 +20240,7 @@
       </c>
       <c r="DR28" s="21">
         <f>SYR!U27</f>
-        <v>-0.50833319402929533</v>
+        <v>-0.50833319402926602</v>
       </c>
       <c r="DS28">
         <v>0.860513796</v>
@@ -20375,7 +20373,7 @@
       </c>
       <c r="GO28">
         <f>SYR!AC27</f>
-        <v>1.5668290207840649</v>
+        <v>1.5668290207840951</v>
       </c>
       <c r="GP28">
         <v>0.61707472225565996</v>
@@ -20643,7 +20641,7 @@
       </c>
       <c r="BY29" s="8">
         <f>SYR!M28</f>
-        <v>-1.0131748979758484</v>
+        <v>-1.0131748979758202</v>
       </c>
       <c r="BZ29" s="21">
         <v>-0.47059578170405358</v>
@@ -20722,7 +20720,7 @@
       </c>
       <c r="DR29" s="21">
         <f>SYR!U28</f>
-        <v>-1.3191361606378003</v>
+        <v>-1.3191361606378302</v>
       </c>
       <c r="DS29">
         <v>-1.1979784790000001</v>
@@ -20855,7 +20853,7 @@
       </c>
       <c r="GO29">
         <f>SYR!AC28</f>
-        <v>9.2419189579753952E-2</v>
+        <v>9.2419189579751218E-2</v>
       </c>
       <c r="GP29">
         <v>-0.65398339279617002</v>
@@ -21123,7 +21121,7 @@
       </c>
       <c r="BY30" s="8">
         <f>SYR!M29</f>
-        <v>1.0612255938382147</v>
+        <v>1.0612255938381991</v>
       </c>
       <c r="BZ30" s="21">
         <v>0.62242192325669587</v>
@@ -21202,7 +21200,7 @@
       </c>
       <c r="DR30" s="21">
         <f>SYR!U29</f>
-        <v>-0.64152201049524549</v>
+        <v>-0.64152201049525703</v>
       </c>
       <c r="DS30">
         <v>-7.4103815000000003E-2</v>
@@ -21335,7 +21333,7 @@
       </c>
       <c r="GO30">
         <f>SYR!AC29</f>
-        <v>0.88720903582057042</v>
+        <v>0.88720903582055932</v>
       </c>
       <c r="GP30">
         <v>-0.121744044657574</v>
@@ -21603,7 +21601,7 @@
       </c>
       <c r="BY31" s="8">
         <f>SYR!M30</f>
-        <v>0.6448215973740602</v>
+        <v>0.64482159737407307</v>
       </c>
       <c r="BZ31" s="21">
         <v>1.1834322489624398</v>
@@ -21682,7 +21680,7 @@
       </c>
       <c r="DR31" s="21">
         <f>SYR!U30</f>
-        <v>-0.12553161505588201</v>
+        <v>-0.12553161505588989</v>
       </c>
       <c r="DS31">
         <v>-0.65013449099999998</v>
@@ -21815,7 +21813,7 @@
       </c>
       <c r="GO31">
         <f>SYR!AC30</f>
-        <v>1.1119648695065265</v>
+        <v>1.1119648695065081</v>
       </c>
       <c r="GP31">
         <v>-0.123823959931443</v>
@@ -22083,7 +22081,7 @@
       </c>
       <c r="BY32" s="8">
         <f>SYR!M31</f>
-        <v>0.67430046624303752</v>
+        <v>0.67430046624306428</v>
       </c>
       <c r="BZ32" s="21">
         <v>1.0889334823718375</v>
@@ -22162,7 +22160,7 @@
       </c>
       <c r="DR32" s="21">
         <f>SYR!U31</f>
-        <v>-0.24372816395778621</v>
+        <v>-0.2437281639577808</v>
       </c>
       <c r="DS32">
         <v>1.5660637989999999</v>
@@ -22295,7 +22293,7 @@
       </c>
       <c r="GO32">
         <f>SYR!AC31</f>
-        <v>0.7033963086495153</v>
+        <v>0.7033963086494921</v>
       </c>
       <c r="GP32">
         <v>0.81334239484858895</v>
@@ -22563,7 +22561,7 @@
       </c>
       <c r="BY33" s="8">
         <f>SYR!M32</f>
-        <v>-1.4506441141801734</v>
+        <v>-1.4506441141801869</v>
       </c>
       <c r="BZ33" s="21">
         <v>-0.71558900325271069</v>
@@ -22642,7 +22640,7 @@
       </c>
       <c r="DR33" s="21">
         <f>SYR!U32</f>
-        <v>0.69779748819252596</v>
+        <v>0.69779748819255161</v>
       </c>
       <c r="DS33">
         <v>-1.554526311</v>
@@ -22775,7 +22773,7 @@
       </c>
       <c r="GO33">
         <f>SYR!AC32</f>
-        <v>0.38347372488461445</v>
+        <v>0.3834737248846361</v>
       </c>
       <c r="GP33">
         <v>-1.49822215842268</v>
@@ -23043,7 +23041,7 @@
       </c>
       <c r="BY34" s="8">
         <f>SYR!M33</f>
-        <v>-0.13276042260284673</v>
+        <v>-0.13276042260283349</v>
       </c>
       <c r="BZ34" s="21">
         <v>0.72893357728723862</v>
@@ -23122,7 +23120,7 @@
       </c>
       <c r="DR34" s="21">
         <f>SYR!U33</f>
-        <v>0.46798187650372319</v>
+        <v>0.46798187650369416</v>
       </c>
       <c r="DS34">
         <v>1.248390109</v>
@@ -23255,7 +23253,7 @@
       </c>
       <c r="GO34">
         <f>SYR!AC33</f>
-        <v>0.68825806270514778</v>
+        <v>0.68825806270516243</v>
       </c>
       <c r="GP34">
         <v>0.97287548284259795</v>
@@ -23523,7 +23521,7 @@
       </c>
       <c r="BY35" s="8">
         <f>SYR!M34</f>
-        <v>-0.80579459394048558</v>
+        <v>-0.80579459394047992</v>
       </c>
       <c r="BZ35" s="21">
         <v>0.2069288809381499</v>
@@ -23602,7 +23600,7 @@
       </c>
       <c r="DR35" s="21">
         <f>SYR!U34</f>
-        <v>-0.49749074736137106</v>
+        <v>-0.49749074736137255</v>
       </c>
       <c r="DS35">
         <v>7.7423102999999993E-2</v>
@@ -23735,7 +23733,7 @@
       </c>
       <c r="GO35">
         <f>SYR!AC34</f>
-        <v>0.19817209111198075</v>
+        <v>0.19817209111198572</v>
       </c>
       <c r="GP35">
         <v>0.16036420495572901</v>
@@ -24003,7 +24001,7 @@
       </c>
       <c r="BY36" s="8">
         <f>SYR!M35</f>
-        <v>-1.9633309849177771</v>
+        <v>-1.9633309849177776</v>
       </c>
       <c r="BZ36" s="21">
         <v>0.92994399790838367</v>
@@ -24082,7 +24080,7 @@
       </c>
       <c r="DR36" s="21">
         <f>SYR!U35</f>
-        <v>0.50917536993346879</v>
+        <v>0.50917536993346635</v>
       </c>
       <c r="DS36">
         <v>0.59864827499999995</v>
@@ -24215,7 +24213,7 @@
       </c>
       <c r="GO36">
         <f>SYR!AC35</f>
-        <v>-0.40569313354135905</v>
+        <v>-0.40569313354135939</v>
       </c>
       <c r="GP36">
         <v>0.76795062047968798</v>
@@ -24483,7 +24481,7 @@
       </c>
       <c r="BY37" s="8">
         <f>SYR!M36</f>
-        <v>-0.99878248738002195</v>
+        <v>-0.99878248738002218</v>
       </c>
       <c r="BZ37" s="21">
         <v>-6.7067287061245637E-2</v>
@@ -24562,7 +24560,7 @@
       </c>
       <c r="DR37" s="21">
         <f>SYR!U36</f>
-        <v>1.3097858737873458</v>
+        <v>1.309785873787346</v>
       </c>
       <c r="DS37">
         <v>1.6892460439999999</v>
@@ -24695,7 +24693,7 @@
       </c>
       <c r="GO37">
         <f>SYR!AC36</f>
-        <v>-0.80920648157894903</v>
+        <v>-0.80920648157895458</v>
       </c>
       <c r="GP37">
         <v>1.6361006275169401</v>
@@ -24963,7 +24961,7 @@
       </c>
       <c r="BY38" s="8">
         <f>SYR!M37</f>
-        <v>-1.1796157090268373</v>
+        <v>-1.179615709026838</v>
       </c>
       <c r="BZ38" s="21">
         <v>-0.87407593658265847</v>
@@ -25042,7 +25040,7 @@
       </c>
       <c r="DR38" s="21">
         <f>SYR!U37</f>
-        <v>0.46704643745175906</v>
+        <v>0.46704643745176055</v>
       </c>
       <c r="DS38">
         <v>-9.0510566000000001E-2</v>
@@ -25175,7 +25173,7 @@
       </c>
       <c r="GO38">
         <f>SYR!AC37</f>
-        <v>-0.87675347666557923</v>
+        <v>-0.87675347666557524</v>
       </c>
       <c r="GP38">
         <v>-8.3470777668153306E-2</v>
@@ -25443,7 +25441,7 @@
       </c>
       <c r="BY39" s="8">
         <f>SYR!M38</f>
-        <v>-1.0706630452533139</v>
+        <v>-1.0706630452533141</v>
       </c>
       <c r="BZ39" s="21">
         <v>0.43744479914353945</v>
@@ -25522,7 +25520,7 @@
       </c>
       <c r="DR39" s="21">
         <f>SYR!U38</f>
-        <v>-0.6475479012023867</v>
+        <v>-0.64754790120238404</v>
       </c>
       <c r="DS39">
         <v>-0.11300821</v>
@@ -25655,7 +25653,7 @@
       </c>
       <c r="GO39">
         <f>SYR!AC38</f>
-        <v>-1.1934271459152268</v>
+        <v>-1.1934271459152226</v>
       </c>
       <c r="GP39">
         <v>-0.53846961263104598</v>
@@ -25923,7 +25921,7 @@
       </c>
       <c r="BY40" s="8">
         <f>SYR!M39</f>
-        <v>0.28680518746121025</v>
+        <v>0.28680518746123451</v>
       </c>
       <c r="BZ40" s="21">
         <v>0.25744484660124006</v>
@@ -26002,7 +26000,7 @@
       </c>
       <c r="DR40" s="21">
         <f>SYR!U39</f>
-        <v>-0.20686650483013497</v>
+        <v>-0.20686650483013563</v>
       </c>
       <c r="DS40">
         <v>-0.75337566</v>
@@ -26135,7 +26133,7 @@
       </c>
       <c r="GO40">
         <f>SYR!AC39</f>
-        <v>1.5843530881178067</v>
+        <v>1.5843530881178027</v>
       </c>
       <c r="GP40">
         <v>-0.68891719466151902</v>
@@ -26403,7 +26401,7 @@
       </c>
       <c r="BY41" s="8">
         <f>SYR!M40</f>
-        <v>5.7851897364504253E-2</v>
+        <v>5.7851897364497529E-2</v>
       </c>
       <c r="BZ41" s="21">
         <v>-0.33106077215472435</v>
@@ -26482,7 +26480,7 @@
       </c>
       <c r="DR41" s="21">
         <f>SYR!U40</f>
-        <v>-1.9791529730003701</v>
+        <v>-1.9791529730003694</v>
       </c>
       <c r="DS41">
         <v>-1.131547053</v>
@@ -26615,7 +26613,7 @@
       </c>
       <c r="GO41">
         <f>SYR!AC40</f>
-        <v>-0.90726217234288076</v>
+        <v>-0.90726217234287254</v>
       </c>
       <c r="GP41">
         <v>-1.0026231028464401</v>
@@ -26883,7 +26881,7 @@
       </c>
       <c r="BY42" s="8">
         <f>SYR!M41</f>
-        <v>0.19233681841419359</v>
+        <v>0.19233681841418684</v>
       </c>
       <c r="BZ42" s="21">
         <v>-0.96706704977274305</v>
@@ -26962,7 +26960,7 @@
       </c>
       <c r="DR42" s="21">
         <f>SYR!U41</f>
-        <v>-9.0876311738463139E-2</v>
+        <v>-9.0876311738462404E-2</v>
       </c>
       <c r="DS42">
         <v>-1.1765615650000001</v>
@@ -27095,7 +27093,7 @@
       </c>
       <c r="GO42">
         <f>SYR!AC41</f>
-        <v>0.58347036556321508</v>
+        <v>0.58347036556320631</v>
       </c>
       <c r="GP42">
         <v>-1.23269486613548</v>
@@ -27363,7 +27361,7 @@
       </c>
       <c r="BY43" s="8">
         <f>SYR!M42</f>
-        <v>0.11293757404925336</v>
+        <v>0.11293757404924644</v>
       </c>
       <c r="BZ43" s="21">
         <v>0.52495618962926072</v>
@@ -27442,7 +27440,7 @@
       </c>
       <c r="DR43" s="21">
         <f>SYR!U42</f>
-        <v>-0.42258365485124572</v>
+        <v>-0.42258365485124849</v>
       </c>
       <c r="DS43">
         <v>-0.23334992399999999</v>
@@ -27575,7 +27573,7 @@
       </c>
       <c r="GO43">
         <f>SYR!AC42</f>
-        <v>0.75898925624294078</v>
+        <v>0.75898925624294122</v>
       </c>
       <c r="GP43">
         <v>3.5472350007388603E-2</v>
@@ -27843,7 +27841,7 @@
       </c>
       <c r="BY44" s="8">
         <f>SYR!M43</f>
-        <v>0.43966364045984724</v>
+        <v>0.43966364045986472</v>
       </c>
       <c r="BZ44" s="21">
         <v>0.3354561053145505</v>
@@ -27922,7 +27920,7 @@
       </c>
       <c r="DR44" s="21">
         <f>SYR!U43</f>
-        <v>-1.0585502962238651</v>
+        <v>-1.0585502962238662</v>
       </c>
       <c r="DS44">
         <v>0.39255529900000002</v>
@@ -28055,7 +28053,7 @@
       </c>
       <c r="GO44">
         <f>SYR!AC43</f>
-        <v>-1.1577758357564207</v>
+        <v>-1.1577758357564187</v>
       </c>
       <c r="GP44">
         <v>0.368501637951137</v>
@@ -28323,7 +28321,7 @@
       </c>
       <c r="BY45" s="8">
         <f>SYR!M44</f>
-        <v>0.91007051724647037</v>
+        <v>0.91007051724648835</v>
       </c>
       <c r="BZ45" s="21">
         <v>-2.8370853555371545</v>
@@ -28402,7 +28400,7 @@
       </c>
       <c r="DR45" s="21">
         <f>SYR!U44</f>
-        <v>-0.31077524845790283</v>
+        <v>-0.31077524845790183</v>
       </c>
       <c r="DS45">
         <v>-2.088593446</v>
@@ -28535,7 +28533,7 @@
       </c>
       <c r="GO45">
         <f>SYR!AC44</f>
-        <v>-0.30505928624212036</v>
+        <v>-0.30505928624212503</v>
       </c>
       <c r="GP45">
         <v>-2.12030563166025</v>
@@ -28803,7 +28801,7 @@
       </c>
       <c r="BY46" s="8">
         <f>SYR!M45</f>
-        <v>0.7407821819930871</v>
+        <v>0.74078218199307422</v>
       </c>
       <c r="BZ46" s="21">
         <v>0.42196239353325971</v>
@@ -28882,7 +28880,7 @@
       </c>
       <c r="DR46" s="21">
         <f>SYR!U45</f>
-        <v>-0.54535628698326744</v>
+        <v>-0.54535628698326422</v>
       </c>
       <c r="DS46">
         <v>0.53656140399999996</v>
@@ -29015,7 +29013,7 @@
       </c>
       <c r="GO46">
         <f>SYR!AC45</f>
-        <v>-0.63024857424325009</v>
+        <v>-0.6302485742432441</v>
       </c>
       <c r="GP46">
         <v>0.59703226301803403</v>
@@ -29283,7 +29281,7 @@
       </c>
       <c r="BY47" s="8">
         <f>SYR!M46</f>
-        <v>1.2785187155471933</v>
+        <v>1.27851871554718</v>
       </c>
       <c r="BZ47" s="21">
         <v>-0.56554875966395857</v>
@@ -29362,7 +29360,7 @@
       </c>
       <c r="DR47" s="21">
         <f>SYR!U46</f>
-        <v>0.39302017855323179</v>
+        <v>0.39302017855323212</v>
       </c>
       <c r="DS47">
         <v>1.102178001</v>
@@ -29495,7 +29493,7 @@
       </c>
       <c r="GO47">
         <f>SYR!AC46</f>
-        <v>0.4773230011671401</v>
+        <v>0.47732300116712906</v>
       </c>
       <c r="GP47">
         <v>1.2869257589288901</v>
@@ -29763,7 +29761,7 @@
       </c>
       <c r="BY48" s="8">
         <f>SYR!M47</f>
-        <v>1.0953728159175058</v>
+        <v>1.095372815917492</v>
       </c>
       <c r="BZ48" s="21">
         <v>-1.2015550372819772</v>
@@ -29842,7 +29840,7 @@
       </c>
       <c r="DR48" s="21">
         <f>SYR!U47</f>
-        <v>0.25860950497003093</v>
+        <v>0.25860950497003266</v>
       </c>
       <c r="DS48">
         <v>-0.42330146499999999</v>
@@ -29975,7 +29973,7 @@
       </c>
       <c r="GO48">
         <f>SYR!AC47</f>
-        <v>0.31377313402229168</v>
+        <v>0.31377313402229123</v>
       </c>
       <c r="GP48">
         <v>-0.16602238192882501</v>
@@ -30243,7 +30241,7 @@
       </c>
       <c r="BY49" s="8">
         <f>SYR!M48</f>
-        <v>1.4185047590445181</v>
+        <v>1.418504759044529</v>
       </c>
       <c r="BZ49" s="21">
         <v>-0.23203904536256825</v>
@@ -30322,7 +30320,7 @@
       </c>
       <c r="DR49" s="21">
         <f>SYR!U48</f>
-        <v>0.68988453767471147</v>
+        <v>0.68988453767471203</v>
       </c>
       <c r="DS49">
         <v>0.38461183900000001</v>
@@ -30455,7 +30453,7 @@
       </c>
       <c r="GO49">
         <f>SYR!AC48</f>
-        <v>0.89057889341635987</v>
+        <v>0.89057889341636842</v>
       </c>
       <c r="GP49">
         <v>0.40724882508014798</v>
@@ -30723,7 +30721,7 @@
       </c>
       <c r="BY50" s="8">
         <f>SYR!M49</f>
-        <v>1.4938919542601758</v>
+        <v>1.4938919542601867</v>
       </c>
       <c r="BZ50" s="21">
         <v>0.7374769465568406</v>
@@ -30802,7 +30800,7 @@
       </c>
       <c r="DR50" s="21">
         <f>SYR!U49</f>
-        <v>0.78590355926533073</v>
+        <v>0.78590355926532818</v>
       </c>
       <c r="DS50">
         <v>-0.34640599799999999</v>
@@ -30935,7 +30933,7 @@
       </c>
       <c r="GO50">
         <f>SYR!AC49</f>
-        <v>1.0634582685195917</v>
+        <v>1.0634582685195839</v>
       </c>
       <c r="GP50">
         <v>-0.35182764144774498</v>
@@ -31203,7 +31201,7 @@
       </c>
       <c r="BY51" s="8">
         <f>SYR!M50</f>
-        <v>1.1395455876081333</v>
+        <v>1.1395455876081133</v>
       </c>
       <c r="BZ51" s="21">
         <v>0.31047356793185987</v>
@@ -31282,7 +31280,7 @@
       </c>
       <c r="DR51" s="21">
         <f>SYR!U50</f>
-        <v>0.46637326484770475</v>
+        <v>0.46637326484770442</v>
       </c>
       <c r="DS51">
         <v>-0.140051384</v>
@@ -31415,7 +31413,7 @@
       </c>
       <c r="GO51">
         <f>SYR!AC50</f>
-        <v>0.63284751568949482</v>
+        <v>0.63284751568949793</v>
       </c>
       <c r="GP51">
         <v>-0.12706737455442399</v>
@@ -31683,7 +31681,7 @@
       </c>
       <c r="BY52" s="8">
         <f>SYR!M51</f>
-        <v>1.2800825599936592</v>
+        <v>1.2800825599936638</v>
       </c>
       <c r="BZ52" s="21">
         <v>-1.3700446535178417</v>
@@ -31762,7 +31760,7 @@
       </c>
       <c r="DR52" s="21">
         <f>SYR!U51</f>
-        <v>0.46813733686953374</v>
+        <v>0.46813733686953191</v>
       </c>
       <c r="DS52">
         <v>-1.1894533300000001</v>
@@ -31895,7 +31893,7 @@
       </c>
       <c r="GO52">
         <f>SYR!AC51</f>
-        <v>0.82626259896925425</v>
+        <v>0.82626259896925069</v>
       </c>
       <c r="GP52">
         <v>-1.0571384849324801</v>
@@ -32163,7 +32161,7 @@
       </c>
       <c r="BY53" s="8">
         <f>SYR!M52</f>
-        <v>0.992950395442871</v>
+        <v>0.99295039544287012</v>
       </c>
       <c r="BZ53" s="21">
         <v>0.5604923008155771</v>
@@ -32242,7 +32240,7 @@
       </c>
       <c r="DR53" s="21">
         <f>SYR!U52</f>
-        <v>1.284643141567926</v>
+        <v>1.284643141567924</v>
       </c>
       <c r="DS53">
         <v>0.84419197000000001</v>
@@ -32375,7 +32373,7 @@
       </c>
       <c r="GO53">
         <f>SYR!AC52</f>
-        <v>2.9657795210621929</v>
+        <v>2.9657795210622013</v>
       </c>
       <c r="GP53">
         <v>0.45648152548695398</v>
@@ -32643,7 +32641,7 @@
       </c>
       <c r="BY54" s="8">
         <f>SYR!M53</f>
-        <v>0.10954796294812758</v>
+        <v>0.10954796294812673</v>
       </c>
       <c r="BZ54" s="21">
         <v>-3.7513449712798165E-2</v>
@@ -32722,7 +32720,7 @@
       </c>
       <c r="DR54" s="21">
         <f>SYR!U53</f>
-        <v>1.2430668808894505</v>
+        <v>1.2430668808894503</v>
       </c>
       <c r="DS54">
         <v>0.51374495499999995</v>
@@ -32855,7 +32853,7 @@
       </c>
       <c r="GO54">
         <f>SYR!AC53</f>
-        <v>-0.39404366753371162</v>
+        <v>-0.39404366753371539</v>
       </c>
       <c r="GP54">
         <v>0.17704915851369701</v>
@@ -33123,7 +33121,7 @@
       </c>
       <c r="BY55" s="8">
         <f>SYR!M54</f>
-        <v>-0.28440348918028346</v>
+        <v>-0.28440348918028391</v>
       </c>
       <c r="BZ55" s="21">
         <v>1.1505055729720592</v>
@@ -33202,7 +33200,7 @@
       </c>
       <c r="DR55" s="21">
         <f>SYR!U54</f>
-        <v>1.0840083564938763</v>
+        <v>1.0840083564938781</v>
       </c>
       <c r="DS55">
         <v>1.1519082599999999</v>
@@ -33335,7 +33333,7 @@
       </c>
       <c r="GO55">
         <f>SYR!AC54</f>
-        <v>0.71242648045104795</v>
+        <v>0.71242648045105283</v>
       </c>
       <c r="GP55">
         <v>1.44788729922533</v>
@@ -33603,7 +33601,7 @@
       </c>
       <c r="BY56" s="8">
         <f>SYR!M55</f>
-        <v>-0.78099013073397228</v>
+        <v>-0.78099013073397283</v>
       </c>
       <c r="BZ56" s="21">
         <v>1.1985087829676193</v>
@@ -33682,7 +33680,7 @@
       </c>
       <c r="DR56" s="21">
         <f>SYR!U55</f>
-        <v>0.3700878752690851</v>
+        <v>0.37008787526908304</v>
       </c>
       <c r="DS56">
         <v>0.77666279199999999</v>
@@ -33815,7 +33813,7 @@
       </c>
       <c r="GO56">
         <f>SYR!AC55</f>
-        <v>-0.8283069592848511</v>
+        <v>-0.82830695928486142</v>
       </c>
       <c r="GP56">
         <v>-0.36162920918832703</v>
@@ -34083,7 +34081,7 @@
       </c>
       <c r="BY57" s="8">
         <f>SYR!M56</f>
-        <v>-0.61035894779830857</v>
+        <v>-0.61035894779831523</v>
       </c>
       <c r="BZ57" s="21">
         <v>-3.600579631228034E-2</v>
@@ -34162,7 +34160,7 @@
       </c>
       <c r="DR57" s="21">
         <f>SYR!U56</f>
-        <v>0.35163035338085435</v>
+        <v>0.35163035338085447</v>
       </c>
       <c r="DS57">
         <v>-0.27994859900000002</v>
@@ -34295,7 +34293,7 @@
       </c>
       <c r="GO57">
         <f>SYR!AC56</f>
-        <v>-0.41744199372102853</v>
+        <v>-0.4174419937210288</v>
       </c>
       <c r="GP57">
         <v>2.3254468267591501E-2</v>
@@ -34563,7 +34561,7 @@
       </c>
       <c r="BY58" s="8">
         <f>SYR!M57</f>
-        <v>-1.203064429327438</v>
+        <v>-1.2030644293274446</v>
       </c>
       <c r="BZ58" s="21">
         <v>0.63900611066239343</v>
@@ -34642,7 +34640,7 @@
       </c>
       <c r="DR58" s="21">
         <f>SYR!U57</f>
-        <v>-1.6696489604369966</v>
+        <v>-1.6696489604369957</v>
       </c>
       <c r="DS58">
         <v>1.17673677</v>
@@ -34775,7 +34773,7 @@
       </c>
       <c r="GO58">
         <f>SYR!AC57</f>
-        <v>-1.1788801524820796</v>
+        <v>-1.1788801524820691</v>
       </c>
       <c r="GP58">
         <v>2.3149688043405199</v>
@@ -35043,7 +35041,7 @@
       </c>
       <c r="BY59" s="8">
         <f>SYR!M58</f>
-        <v>-1.0632153294486983</v>
+        <v>-1.063215329448705</v>
       </c>
       <c r="BZ59" s="21">
         <v>-2.6190365361410088</v>
@@ -35122,7 +35120,7 @@
       </c>
       <c r="DR59" s="21">
         <f>SYR!U58</f>
-        <v>0.29961875458374171</v>
+        <v>0.29961875458374598</v>
       </c>
       <c r="DS59">
         <v>-1.4975807619999999</v>
@@ -35255,7 +35253,7 @@
       </c>
       <c r="GO59">
         <f>SYR!AC58</f>
-        <v>-0.65497875832472607</v>
+        <v>-0.65497875832473262</v>
       </c>
       <c r="GP59">
         <v>-1.6937582493131</v>
@@ -35523,7 +35521,7 @@
       </c>
       <c r="BY60" s="8">
         <f>SYR!M59</f>
-        <v>-0.38291971947672804</v>
+        <v>-0.38291971947673481</v>
       </c>
       <c r="BZ60" s="21">
         <v>0.85851424369485407</v>
@@ -35602,7 +35600,7 @@
       </c>
       <c r="DR60" s="21">
         <f>SYR!U59</f>
-        <v>0.29905539018194066</v>
+        <v>0.29905539018194144</v>
       </c>
       <c r="DS60">
         <v>-7.9751448000000003E-2</v>
@@ -35735,7 +35733,7 @@
       </c>
       <c r="GO60">
         <f>SYR!AC59</f>
-        <v>-6.8617391651492929E-2</v>
+        <v>-6.8617391651489001E-2</v>
       </c>
       <c r="GP60">
         <v>0.57461894793703405</v>
@@ -36003,7 +36001,7 @@
       </c>
       <c r="BY61" s="8">
         <f>SYR!M60</f>
-        <v>-1.2057237012668858</v>
+        <v>-1.2057237012668678</v>
       </c>
       <c r="BZ61" s="21">
         <v>-8.1496250640310186E-2</v>
@@ -36082,7 +36080,7 @@
       </c>
       <c r="DR61" s="21">
         <f>SYR!U60</f>
-        <v>-2.8511979306339881</v>
+        <v>-2.8511979306339903</v>
       </c>
       <c r="DS61">
         <v>-0.25185108699999997</v>
@@ -36215,7 +36213,7 @@
       </c>
       <c r="GO61">
         <f>SYR!AC60</f>
-        <v>-1.1797391850496401</v>
+        <v>-1.1797391850496424</v>
       </c>
       <c r="GP61">
         <v>-0.13566233667288899</v>
@@ -36346,56 +36344,18 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="II2:IK2"/>
-    <mergeCell ref="IL2:IN2"/>
-    <mergeCell ref="IO2:IQ2"/>
-    <mergeCell ref="IR2:IT2"/>
-    <mergeCell ref="IU2:IW2"/>
-    <mergeCell ref="HT2:HV2"/>
-    <mergeCell ref="HW2:HY2"/>
-    <mergeCell ref="HZ2:IB2"/>
-    <mergeCell ref="IC2:IE2"/>
-    <mergeCell ref="IF2:IH2"/>
-    <mergeCell ref="HE2:HG2"/>
-    <mergeCell ref="HH2:HJ2"/>
-    <mergeCell ref="HK2:HM2"/>
-    <mergeCell ref="HN2:HP2"/>
-    <mergeCell ref="HQ2:HS2"/>
-    <mergeCell ref="GP2:GR2"/>
-    <mergeCell ref="GS2:GU2"/>
-    <mergeCell ref="GV2:GX2"/>
-    <mergeCell ref="GY2:HA2"/>
-    <mergeCell ref="HB2:HD2"/>
-    <mergeCell ref="FL2:FN2"/>
-    <mergeCell ref="FO2:FQ2"/>
-    <mergeCell ref="FR2:FT2"/>
-    <mergeCell ref="FU2:FW2"/>
-    <mergeCell ref="FX2:FZ2"/>
-    <mergeCell ref="EW2:EY2"/>
-    <mergeCell ref="EZ2:FB2"/>
-    <mergeCell ref="FC2:FE2"/>
-    <mergeCell ref="FF2:FH2"/>
-    <mergeCell ref="FI2:FK2"/>
-    <mergeCell ref="EH2:EJ2"/>
-    <mergeCell ref="EK2:EM2"/>
-    <mergeCell ref="EN2:EP2"/>
-    <mergeCell ref="EQ2:ES2"/>
-    <mergeCell ref="ET2:EV2"/>
-    <mergeCell ref="DS2:DU2"/>
-    <mergeCell ref="DV2:DX2"/>
-    <mergeCell ref="DY2:EA2"/>
-    <mergeCell ref="EB2:ED2"/>
-    <mergeCell ref="EE2:EG2"/>
-    <mergeCell ref="CO2:CQ2"/>
-    <mergeCell ref="CR2:CT2"/>
-    <mergeCell ref="CU2:CW2"/>
-    <mergeCell ref="CX2:CZ2"/>
-    <mergeCell ref="DA2:DC2"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CC2:CE2"/>
-    <mergeCell ref="CF2:CH2"/>
-    <mergeCell ref="CI2:CK2"/>
-    <mergeCell ref="CL2:CN2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="BB2:BD2"/>
     <mergeCell ref="BE2:BG2"/>
     <mergeCell ref="BH2:BJ2"/>
@@ -36404,18 +36364,56 @@
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="AV2:AX2"/>
     <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CC2:CE2"/>
+    <mergeCell ref="CF2:CH2"/>
+    <mergeCell ref="CI2:CK2"/>
+    <mergeCell ref="CL2:CN2"/>
+    <mergeCell ref="CO2:CQ2"/>
+    <mergeCell ref="CR2:CT2"/>
+    <mergeCell ref="CU2:CW2"/>
+    <mergeCell ref="CX2:CZ2"/>
+    <mergeCell ref="DA2:DC2"/>
+    <mergeCell ref="DS2:DU2"/>
+    <mergeCell ref="DV2:DX2"/>
+    <mergeCell ref="DY2:EA2"/>
+    <mergeCell ref="EB2:ED2"/>
+    <mergeCell ref="EE2:EG2"/>
+    <mergeCell ref="EH2:EJ2"/>
+    <mergeCell ref="EK2:EM2"/>
+    <mergeCell ref="EN2:EP2"/>
+    <mergeCell ref="EQ2:ES2"/>
+    <mergeCell ref="ET2:EV2"/>
+    <mergeCell ref="EW2:EY2"/>
+    <mergeCell ref="EZ2:FB2"/>
+    <mergeCell ref="FC2:FE2"/>
+    <mergeCell ref="FF2:FH2"/>
+    <mergeCell ref="FI2:FK2"/>
+    <mergeCell ref="FL2:FN2"/>
+    <mergeCell ref="FO2:FQ2"/>
+    <mergeCell ref="FR2:FT2"/>
+    <mergeCell ref="FU2:FW2"/>
+    <mergeCell ref="FX2:FZ2"/>
+    <mergeCell ref="GP2:GR2"/>
+    <mergeCell ref="GS2:GU2"/>
+    <mergeCell ref="GV2:GX2"/>
+    <mergeCell ref="GY2:HA2"/>
+    <mergeCell ref="HB2:HD2"/>
+    <mergeCell ref="HE2:HG2"/>
+    <mergeCell ref="HH2:HJ2"/>
+    <mergeCell ref="HK2:HM2"/>
+    <mergeCell ref="HN2:HP2"/>
+    <mergeCell ref="HQ2:HS2"/>
+    <mergeCell ref="HT2:HV2"/>
+    <mergeCell ref="HW2:HY2"/>
+    <mergeCell ref="HZ2:IB2"/>
+    <mergeCell ref="IC2:IE2"/>
+    <mergeCell ref="IF2:IH2"/>
+    <mergeCell ref="II2:IK2"/>
+    <mergeCell ref="IL2:IN2"/>
+    <mergeCell ref="IO2:IQ2"/>
+    <mergeCell ref="IR2:IT2"/>
+    <mergeCell ref="IU2:IW2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
